--- a/WSI_MCP_TestData.xlsx
+++ b/WSI_MCP_TestData.xlsx
@@ -17,12 +17,12 @@
     <t>DataType</t>
   </si>
   <si>
+    <t>AttributeType</t>
+  </si>
+  <si>
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>AttributeType</t>
-  </si>
-  <si>
     <t>InternalName</t>
   </si>
   <si>
@@ -56,142 +56,163 @@
     <t>TableWrappable</t>
   </si>
   <si>
+    <t>TableMinWrapWidth</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>ElementWidth</t>
+  </si>
+  <si>
+    <t>ElementHeight</t>
+  </si>
+  <si>
+    <t>StringLengthFrom</t>
+  </si>
+  <si>
+    <t>StringLengthTo</t>
+  </si>
+  <si>
+    <t>InputFieldType</t>
+  </si>
+  <si>
+    <t>OtherSideAttribute</t>
+  </si>
+  <si>
+    <t>OtherSideEntity</t>
+  </si>
+  <si>
+    <t>DefaultToCurrentDate</t>
+  </si>
+  <si>
+    <t>ValidRangeFrom</t>
+  </si>
+  <si>
+    <t>ValidRangeTo</t>
+  </si>
+  <si>
+    <t>DisplayedDigits</t>
+  </si>
+  <si>
+    <t>DecimalDigitsDisplayed</t>
+  </si>
+  <si>
+    <t>CurrencySymbol</t>
+  </si>
+  <si>
+    <t>DBSequences</t>
+  </si>
+  <si>
     <t>Attributes</t>
   </si>
   <si>
-    <t>TableMinWrapWidth</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>Unique</t>
-  </si>
-  <si>
-    <t>ElementWidth</t>
+    <t>UserRoles</t>
+  </si>
+  <si>
+    <t>FitToSize</t>
+  </si>
+  <si>
+    <t>MaxFileSize</t>
+  </si>
+  <si>
+    <t>SupportedType</t>
+  </si>
+  <si>
+    <t>ReferenceEntity</t>
+  </si>
+  <si>
+    <t>ReferenceAttribute</t>
+  </si>
+  <si>
+    <t>MasterList</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
   <si>
     <t>Manual Testing</t>
   </si>
   <si>
-    <t>ElementHeight</t>
-  </si>
-  <si>
-    <t>StringLengthFrom</t>
-  </si>
-  <si>
     <t>Automation Scripting</t>
   </si>
   <si>
-    <t>StringLengthTo</t>
-  </si>
-  <si>
-    <t>InputFieldType</t>
-  </si>
-  <si>
-    <t>OtherSideAttribute</t>
-  </si>
-  <si>
-    <t>OtherSideEntity</t>
-  </si>
-  <si>
-    <t>DefaultToCurrentDate</t>
-  </si>
-  <si>
-    <t>ValidRangeFrom</t>
-  </si>
-  <si>
-    <t>ValidRangeTo</t>
-  </si>
-  <si>
-    <t>DisplayedDigits</t>
-  </si>
-  <si>
-    <t>DecimalDigitsDisplayed</t>
-  </si>
-  <si>
     <t>ETA</t>
   </si>
   <si>
-    <t>CurrencySymbol</t>
-  </si>
-  <si>
-    <t>DBSequences</t>
-  </si>
-  <si>
-    <t>UserRoles</t>
-  </si>
-  <si>
-    <t>FitToSize</t>
-  </si>
-  <si>
-    <t>MaxFileSize</t>
-  </si>
-  <si>
-    <t>SupportedType</t>
+    <t>Multi List</t>
+  </si>
+  <si>
+    <t>QA_ML_IN</t>
+  </si>
+  <si>
+    <t>QA_ML_DN</t>
+  </si>
+  <si>
+    <t>QA_DESC</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>QA_TT</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>ReferenceEntity</t>
-  </si>
-  <si>
-    <t>ReferenceAttribute</t>
-  </si>
-  <si>
-    <t>MasterList</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>QA_FORMULA</t>
   </si>
   <si>
     <t>1-MULTI LIST</t>
   </si>
   <si>
-    <t>String</t>
+    <t>QA_D</t>
   </si>
   <si>
     <t>WORKING FINE</t>
   </si>
   <si>
+    <t>Season</t>
+  </si>
+  <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>Multi List</t>
-  </si>
-  <si>
     <t>2 Days</t>
   </si>
   <si>
-    <t>QA_ML_IN</t>
-  </si>
-  <si>
-    <t>QA_ML_DN</t>
-  </si>
-  <si>
-    <t>QA_DESC</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>QA_TT</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Single List</t>
+  </si>
+  <si>
+    <t>QA_SL_IN</t>
+  </si>
+  <si>
+    <t>QA_SL_DN</t>
   </si>
   <si>
     <t>Automation Steps Performed</t>
   </si>
   <si>
-    <t>QA_FORMULA</t>
-  </si>
-  <si>
-    <t>QA_D</t>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>QA_TEXT_IN</t>
+  </si>
+  <si>
+    <t>QA_TEXT_DN</t>
   </si>
   <si>
     <t>Status</t>
@@ -200,43 +221,52 @@
     <t>2-SINGLE LIST</t>
   </si>
   <si>
-    <t>Season</t>
+    <t>Text Area</t>
+  </si>
+  <si>
+    <t>QA_TEXTAREA_IN</t>
+  </si>
+  <si>
+    <t>QA_TEXTAREA_DN</t>
   </si>
   <si>
     <t>Verification of All fields</t>
   </si>
   <si>
-    <t>Single List</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>QA_SL_IN</t>
-  </si>
-  <si>
-    <t>QA_SL_DN</t>
-  </si>
-  <si>
     <t>3-TEXT</t>
   </si>
   <si>
+    <t>Single Line</t>
+  </si>
+  <si>
+    <t>Multi Entry</t>
+  </si>
+  <si>
+    <t>QA_MULTIENTRY_IN</t>
+  </si>
+  <si>
     <t>Creation of Attributes</t>
   </si>
   <si>
+    <t>QA_MULTIENTRY_DN</t>
+  </si>
+  <si>
     <t>4-TEXT AREA</t>
   </si>
   <si>
     <t>SCMPC-2596</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>QA_TEXT_IN</t>
-  </si>
-  <si>
-    <t>QA_TEXT_DN</t>
+    <t>Derived String</t>
+  </si>
+  <si>
+    <t>QA_DSTRING_IN</t>
+  </si>
+  <si>
+    <t>QA_DSTRING_DN</t>
   </si>
   <si>
     <t>SINGLE LINE RADIO BUTTON BUG</t>
@@ -245,121 +275,136 @@
     <t>Verifying Attributes value in the grid</t>
   </si>
   <si>
-    <t>Text Area</t>
-  </si>
-  <si>
-    <t>QA_TEXTAREA_IN</t>
+    <t>Driven</t>
+  </si>
+  <si>
+    <t>QA_DRIVEN_IN</t>
+  </si>
+  <si>
+    <t>QA_DRIVEN_DN</t>
   </si>
   <si>
     <t xml:space="preserve">5-MULTI ENTRY </t>
   </si>
   <si>
-    <t>QA_TEXTAREA_DN</t>
+    <t>Version Reference</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>QA_VRREF_IN</t>
+  </si>
+  <si>
+    <t>QA_VRREF_DN</t>
   </si>
   <si>
     <t>Modify the Attribute values</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t xml:space="preserve">6-DERIVED STRING </t>
   </si>
   <si>
-    <t>Single Line</t>
-  </si>
-  <si>
-    <t>Multi Entry</t>
-  </si>
-  <si>
-    <t>QA_MULTIENTRY_IN</t>
-  </si>
-  <si>
-    <t>QA_MULTIENTRY_DN</t>
-  </si>
-  <si>
     <t>Verify the modified attributes in the grid</t>
   </si>
   <si>
+    <t>QA_OSA</t>
+  </si>
+  <si>
+    <t>QA_OSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">7-DRIVEN </t>
   </si>
   <si>
+    <t>Object Reference</t>
+  </si>
+  <si>
+    <t>QA_ORREF_IN</t>
+  </si>
+  <si>
+    <t>QA_ORREF_DN</t>
+  </si>
+  <si>
     <t>Delete the Attribute</t>
   </si>
   <si>
-    <t>Derived String</t>
-  </si>
-  <si>
-    <t>QA_DSTRING_IN</t>
-  </si>
-  <si>
-    <t>QA_DSTRING_DN</t>
-  </si>
-  <si>
     <t>8-VERSION REFERENCE</t>
   </si>
   <si>
+    <t>Date Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>QA_DATE_IN</t>
+  </si>
+  <si>
+    <t>QA_DATE_DN</t>
+  </si>
+  <si>
     <t>9-OBJECT REFERENCE</t>
   </si>
   <si>
-    <t>Driven</t>
-  </si>
-  <si>
-    <t>QA_DRIVEN_IN</t>
-  </si>
-  <si>
-    <t>QA_DRIVEN_DN</t>
-  </si>
-  <si>
     <t>10-DATETIME</t>
   </si>
   <si>
     <t>SCMPC-2428</t>
   </si>
   <si>
+    <t>Integer Number</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
     <t>DEFAULT VALUE ISSUE</t>
   </si>
   <si>
+    <t>QA_INT_IN</t>
+  </si>
+  <si>
+    <t>QA_INT_DN</t>
+  </si>
+  <si>
     <t>11-INT</t>
   </si>
   <si>
-    <t>Version Reference</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>QA_VRREF_IN</t>
-  </si>
-  <si>
-    <t>QA_VRREF_DN</t>
-  </si>
-  <si>
     <t>12-FLOAT</t>
   </si>
   <si>
-    <t/>
+    <t>Real Number</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>QA_FLOAT_IN</t>
+  </si>
+  <si>
+    <t>QA_FLOAT_DN</t>
   </si>
   <si>
     <t>13-CURRENCY</t>
   </si>
   <si>
-    <t>QA_OSA</t>
-  </si>
-  <si>
-    <t>QA_OSE</t>
-  </si>
-  <si>
     <t>14-BOOLEAN-</t>
   </si>
   <si>
-    <t>Object Reference</t>
-  </si>
-  <si>
-    <t>QA_ORREF_IN</t>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>QA_CURRENCY_IN</t>
   </si>
   <si>
     <t>15-REFERENCE</t>
   </si>
   <si>
-    <t>QA_ORREF_DN</t>
+    <t>QA_CURRENCY_DN</t>
   </si>
   <si>
     <t>Waiting for build to verify again</t>
@@ -374,52 +419,88 @@
     <t>SCMPC-2412</t>
   </si>
   <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>QA_BOOL_IN</t>
+  </si>
+  <si>
     <t>USERROLES =ID DISPLAYING ISSUE</t>
   </si>
   <si>
+    <t>QA_BOOL_DN</t>
+  </si>
+  <si>
     <t>17-URL-WORKING FINE</t>
   </si>
   <si>
-    <t>Date Time</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>QA_DATE_IN</t>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>QA_SEQ_IN</t>
+  </si>
+  <si>
+    <t>QA_SEQ_DN</t>
   </si>
   <si>
     <t>18-IMAGE-</t>
   </si>
   <si>
-    <t>QA_DATE_DN</t>
-  </si>
-  <si>
     <t>SCMPC-2597</t>
   </si>
   <si>
+    <t>ATTR_INFO_SEQ</t>
+  </si>
+  <si>
     <t>MAX FILE SIZE ISSUE</t>
   </si>
   <si>
+    <t>User Ref</t>
+  </si>
+  <si>
+    <t>QA_UREF_IN</t>
+  </si>
+  <si>
+    <t>QA_UREF_DN</t>
+  </si>
+  <si>
     <t>Sprint 6/7</t>
   </si>
   <si>
+    <t>SYSTEM ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>QA_URL_IN</t>
+  </si>
+  <si>
+    <t>QA_URL_DN</t>
+  </si>
+  <si>
     <t>Sl.No</t>
   </si>
   <si>
-    <t>Integer Number</t>
-  </si>
-  <si>
     <t>Features</t>
   </si>
   <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>QA_INT_IN</t>
-  </si>
-  <si>
-    <t>QA_INT_DN</t>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>QA_IMG_IN</t>
+  </si>
+  <si>
+    <t>QA_IMG_DN</t>
   </si>
   <si>
     <t>Complexity</t>
@@ -431,21 +512,12 @@
     <t>Working Fine</t>
   </si>
   <si>
+    <t>png</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Real Number</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>QA_FLOAT_IN</t>
-  </si>
-  <si>
-    <t>QA_FLOAT_DN</t>
-  </si>
-  <si>
     <t>Edit MCP user</t>
   </si>
   <si>
@@ -455,36 +527,15 @@
     <t>Creation of new Role</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>QA_CURRENCY_IN</t>
-  </si>
-  <si>
-    <t>QA_CURRENCY_DN</t>
-  </si>
-  <si>
     <t>Edit Role</t>
   </si>
   <si>
     <t>Delete Role</t>
   </si>
   <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>Assign User to Role(s)</t>
   </si>
   <si>
-    <t>QA_BOOL_IN</t>
-  </si>
-  <si>
-    <t>QA_BOOL_DN</t>
-  </si>
-  <si>
     <t>Yet to Start</t>
   </si>
   <si>
@@ -497,60 +548,21 @@
     <t>High</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
     <t>Assign CRUD Permission on Attribute Values to Role(s)</t>
   </si>
   <si>
-    <t>Sequence Name</t>
-  </si>
-  <si>
-    <t>QA_SEQ_IN</t>
-  </si>
-  <si>
-    <t>QA_SEQ_DN</t>
-  </si>
-  <si>
     <t>Attribute Values Permission - Edit and Delete</t>
   </si>
   <si>
-    <t>ATTR_INFO_SEQ</t>
-  </si>
-  <si>
     <t>Custom View - Creation</t>
   </si>
   <si>
-    <t>User Ref</t>
-  </si>
-  <si>
-    <t>QA_UREF_IN</t>
-  </si>
-  <si>
-    <t>QA_UREF_DN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estimated steps (with reference from System View ) -480 </t>
   </si>
   <si>
     <t>Custom View - Copy</t>
   </si>
   <si>
-    <t>SYSTEM ADMINISTRATOR</t>
-  </si>
-  <si>
-    <t>Hyperlink</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>QA_URL_IN</t>
-  </si>
-  <si>
-    <t>QA_URL_DN</t>
-  </si>
-  <si>
     <t>Custom View - Edit</t>
   </si>
   <si>
@@ -560,22 +572,10 @@
     <t>Custom View - Sharing</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>QA_IMG_IN</t>
-  </si>
-  <si>
-    <t>QA_IMG_DN</t>
-  </si>
-  <si>
     <t>Custom View - Set as Default View</t>
   </si>
   <si>
     <t>Custom View - Hide/Unhide</t>
-  </si>
-  <si>
-    <t>png</t>
   </si>
   <si>
     <t>View Dialog Box</t>
@@ -1128,22 +1128,22 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1168,6 +1168,12 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1175,12 +1181,6 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1667,1816 +1667,1816 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="P2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="R2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="6">
+        <v>55.0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>62.0</v>
+      </c>
+      <c r="U2" s="6">
         <v>50.0</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="8">
+      <c r="V2" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="6">
         <v>55.0</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T3" s="6">
         <v>62.0</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U3" s="6">
         <v>50.0</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V3" s="6">
         <v>60.0</v>
       </c>
-      <c r="AM2" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="AM3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="P4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="R4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="6">
+        <v>55.0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>62.0</v>
+      </c>
+      <c r="U4" s="6">
         <v>50.0</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="8">
+      <c r="V4" s="6">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="6">
         <v>55.0</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T5" s="6">
         <v>62.0</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U5" s="6">
         <v>50.0</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V5" s="6">
         <v>60.0</v>
       </c>
-      <c r="AM3" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="W5" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="P6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="R6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="6">
+        <v>55.0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>62.0</v>
+      </c>
+      <c r="U6" s="6">
         <v>50.0</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="8">
+      <c r="V6" s="6">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="6">
         <v>55.0</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T7" s="6">
         <v>62.0</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U7" s="6">
         <v>50.0</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V7" s="6">
         <v>60.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="8" t="s">
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="P8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="R8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="6">
+        <v>55.0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>62.0</v>
+      </c>
+      <c r="U8" s="6">
         <v>50.0</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="T5" s="8">
-        <v>62.0</v>
-      </c>
-      <c r="U5" s="8">
+      <c r="V8" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="6">
         <v>50.0</v>
       </c>
-      <c r="V5" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="O9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ10" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="T6" s="8">
-        <v>62.0</v>
-      </c>
-      <c r="U6" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>62.0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>62.0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC10" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>56</v>
+      <c r="P11" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="Q11" s="19">
         <v>43891.0</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>56</v>
+      <c r="R11" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>56</v>
+        <v>96</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="AA11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AB11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AC11" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AD11" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AE11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AF11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AG11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AH11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AI11" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AJ11" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="A12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="6">
+        <v>55.0</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" s="6">
+        <v>55.0</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AE13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="20">
+        <v>50.0</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="W14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="X14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA14" s="20">
+        <v>45.0</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>50.0</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="AD14" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="AE14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="AF14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="P15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="R15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="6">
         <v>50.0</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="8">
+      <c r="O16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD17" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="6">
         <v>55.0</v>
       </c>
-      <c r="T12" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="AB12" s="8">
+      <c r="T18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="6">
         <v>50.0</v>
       </c>
-      <c r="AC12" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S13" s="8">
+      <c r="P19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="6">
         <v>55.0</v>
       </c>
-      <c r="T13" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="23">
-        <v>50.0</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="V14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="W14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="X14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA14" s="23">
-        <v>45.0</v>
-      </c>
-      <c r="AB14" s="23">
-        <v>50.0</v>
-      </c>
-      <c r="AC14" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="AD14" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="AE14" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ14" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ15" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC16" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD16" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF16" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ16" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z17" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC17" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD17" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC18" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD18" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S19" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="T19" s="8">
+      <c r="T19" s="6">
         <v>62.0</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="V19" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="W19" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AA19" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AB19" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AC19" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AD19" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AE19" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AF19" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AG19" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI19" s="8">
+        <v>96</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI19" s="6">
         <v>28.0</v>
       </c>
-      <c r="AJ19" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
+      <c r="AJ19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3505,7 +3505,7 @@
   <sheetData>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3515,371 +3515,371 @@
     </row>
     <row r="6">
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="I7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>60</v>
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="I7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="I8" s="12" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="I9" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7" t="s">
-        <v>70</v>
+      <c r="B10" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="12" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="I11" s="12" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="I12" s="12" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="I13" s="12" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15">
-      <c r="B15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="s">
-        <v>98</v>
+      <c r="B16" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>113</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H16" s="15"/>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19">
-      <c r="B19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
-        <v>114</v>
+      <c r="B21" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>131</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H21" s="15"/>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
-        <v>118</v>
+      <c r="B22" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>134</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H22" s="15"/>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
-        <v>125</v>
+      <c r="B24" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>50</v>
+        <v>146</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H24" s="15"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3889,619 +3889,619 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="20" t="s">
-        <v>130</v>
+      <c r="A32" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>1.0</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="22">
+      <c r="B33" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="9"/>
+      <c r="F33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="10"/>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>2.0</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="22">
+      <c r="B34" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="9"/>
+      <c r="F34" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="10"/>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>3.0</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="22">
+      <c r="B35" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="9"/>
+      <c r="F35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="10"/>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>4.0</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="22">
+      <c r="B36" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>139</v>
+      <c r="F36" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="G36" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>5.0</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="22">
+      <c r="B37" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="9"/>
+      <c r="F37" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="10"/>
     </row>
     <row r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>6.0</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="22">
+      <c r="B38" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G38" s="9"/>
+      <c r="F38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="10"/>
     </row>
     <row r="39">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>7.0</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="22">
+        <v>173</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="24">
         <v>43945.0</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="9"/>
+      <c r="F39" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="10"/>
     </row>
     <row r="40">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>8.0</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" s="22">
+        <v>176</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="24">
         <v>43945.0</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="9"/>
+      <c r="F40" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="10"/>
     </row>
     <row r="41">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>9.0</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="22">
+        <v>178</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="24">
         <v>43945.0</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="9"/>
+      <c r="F41" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="10"/>
     </row>
     <row r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <v>10.0</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="22">
+        <v>179</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="24">
         <v>43945.0</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" s="9"/>
+      <c r="F42" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="10"/>
     </row>
     <row r="43">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>11.0</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="22">
+        <v>180</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>158</v>
+      <c r="F43" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>12.0</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" s="22">
+        <v>182</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>158</v>
+      <c r="F44" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="G44" s="27"/>
     </row>
     <row r="45">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>13.0</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="22">
+        <v>183</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>158</v>
+      <c r="F45" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="G45" s="27"/>
     </row>
     <row r="46">
-      <c r="A46" s="7">
+      <c r="A46" s="8">
         <v>14.0</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="22">
+        <v>184</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>158</v>
+      <c r="F46" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="G46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
         <v>15.0</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="22">
+        <v>185</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="9"/>
+      <c r="F47" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="10"/>
     </row>
     <row r="48">
-      <c r="A48" s="7">
+      <c r="A48" s="8">
         <v>16.0</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="22">
+        <v>186</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="9"/>
+      <c r="F48" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" s="10"/>
     </row>
     <row r="49">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
         <v>17.0</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="22">
+        <v>187</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="9"/>
+      <c r="F49" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" s="10"/>
     </row>
     <row r="50">
-      <c r="A50" s="7">
+      <c r="A50" s="8">
         <v>18.0</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="22">
+      <c r="C50" s="10"/>
+      <c r="D50" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="24">
         <v>43956.0</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="9"/>
+      <c r="F50" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="10"/>
     </row>
     <row r="51">
-      <c r="A51" s="7">
+      <c r="A51" s="8">
         <v>19.0</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="22">
+      <c r="C51" s="10"/>
+      <c r="D51" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="24">
         <v>43956.0</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="9"/>
+      <c r="F51" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" s="10"/>
     </row>
     <row r="52">
-      <c r="A52" s="7">
+      <c r="A52" s="8">
         <v>20.0</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" s="22">
+      <c r="C52" s="10"/>
+      <c r="D52" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="24">
         <v>43956.0</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G52" s="9"/>
+      <c r="F52" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="10"/>
     </row>
     <row r="53">
-      <c r="A53" s="7">
+      <c r="A53" s="8">
         <v>21.0</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="22">
+      <c r="C53" s="10"/>
+      <c r="D53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="24">
         <v>43956.0</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G53" s="9"/>
+      <c r="F53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" s="10"/>
     </row>
     <row r="54">
-      <c r="A54" s="7">
+      <c r="A54" s="8">
         <v>22.0</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="22">
+      <c r="C54" s="10"/>
+      <c r="D54" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G54" s="9"/>
+      <c r="F54" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" s="10"/>
     </row>
     <row r="55">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
         <v>23.0</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="22">
+      <c r="C55" s="10"/>
+      <c r="D55" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G55" s="9"/>
+      <c r="F55" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" s="10"/>
     </row>
     <row r="56">
-      <c r="A56" s="7">
+      <c r="A56" s="8">
         <v>24.0</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E56" s="22">
+      <c r="C56" s="10"/>
+      <c r="D56" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G56" s="9"/>
+      <c r="F56" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" s="10"/>
     </row>
     <row r="57">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
         <v>25.0</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="22">
+      <c r="C57" s="10"/>
+      <c r="D57" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="9"/>
+      <c r="F57" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" s="10"/>
     </row>
     <row r="58">
-      <c r="A58" s="7">
+      <c r="A58" s="8">
         <v>26.0</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E58" s="22">
+      <c r="C58" s="10"/>
+      <c r="D58" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G58" s="9"/>
+      <c r="F58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" s="10"/>
     </row>
     <row r="59">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
         <v>27.0</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="22">
+      <c r="C59" s="10"/>
+      <c r="D59" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="24">
         <v>43962.0</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" s="9"/>
+      <c r="F59" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G59" s="10"/>
     </row>
     <row r="60">
-      <c r="A60" s="7">
+      <c r="A60" s="8">
         <v>28.0</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="22">
+      <c r="C60" s="10"/>
+      <c r="D60" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="24">
         <v>43962.0</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G60" s="9"/>
+      <c r="F60" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G60" s="10"/>
     </row>
     <row r="61">
-      <c r="A61" s="7">
+      <c r="A61" s="8">
         <v>29.0</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="22">
+      <c r="C61" s="10"/>
+      <c r="D61" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="24">
         <v>43962.0</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G61" s="9"/>
+      <c r="F61" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G61" s="10"/>
     </row>
     <row r="62">
-      <c r="A62" s="7">
+      <c r="A62" s="8">
         <v>30.0</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="22">
+      <c r="C62" s="10"/>
+      <c r="D62" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="24">
         <v>43962.0</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G62" s="9"/>
+      <c r="F62" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G62" s="10"/>
     </row>
     <row r="69">
       <c r="B69" s="30" t="s">
@@ -4513,19 +4513,19 @@
         <v>202</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>203</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71">
@@ -4600,19 +4600,19 @@
         <v>202</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D79" s="32" t="s">
         <v>203</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
-      <c r="F84" s="9"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="27"/>
     </row>
     <row r="85">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="9"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="28"/>
     </row>
     <row r="88">
@@ -4711,19 +4711,19 @@
         <v>202</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D89" s="32" t="s">
         <v>203</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G94" s="27"/>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G95" s="27"/>
@@ -4823,14 +4823,14 @@
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G96" s="28"/>
     </row>
     <row r="100">
       <c r="B100" s="43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4838,30 +4838,30 @@
         <v>202</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D101" s="44" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="45">
         <v>1.0</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>228</v>
       </c>
       <c r="D102" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E102" s="47" t="s">
         <v>221</v>
@@ -4869,17 +4869,17 @@
       <c r="F102" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G102" s="9"/>
+      <c r="G102" s="10"/>
     </row>
     <row r="103">
       <c r="B103" s="45">
         <v>2.0</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="10" t="s">
         <v>229</v>
       </c>
       <c r="D103" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E103" s="47" t="s">
         <v>221</v>
@@ -4887,17 +4887,17 @@
       <c r="F103" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G103" s="9"/>
+      <c r="G103" s="10"/>
     </row>
     <row r="104">
       <c r="B104" s="45">
         <v>3.0</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D104" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E104" s="47" t="s">
         <v>221</v>
@@ -4905,35 +4905,35 @@
       <c r="F104" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G104" s="9"/>
+      <c r="G104" s="10"/>
     </row>
     <row r="105">
       <c r="B105" s="45">
         <v>4.0</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>48</v>
+        <v>81</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F105" s="50"/>
       <c r="G105" s="51" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="45">
         <v>5.0</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="10" t="s">
         <v>232</v>
       </c>
       <c r="D106" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E106" s="47" t="s">
         <v>221</v>
@@ -4941,17 +4941,17 @@
       <c r="F106" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G106" s="9"/>
+      <c r="G106" s="10"/>
     </row>
     <row r="107">
       <c r="B107" s="45">
         <v>6.0</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="10" t="s">
         <v>233</v>
       </c>
       <c r="D107" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E107" s="47" t="s">
         <v>221</v>
@@ -4959,17 +4959,17 @@
       <c r="F107" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G107" s="9"/>
+      <c r="G107" s="10"/>
     </row>
     <row r="108">
       <c r="B108" s="45">
         <v>7.0</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>234</v>
       </c>
       <c r="D108" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E108" s="47" t="s">
         <v>221</v>
@@ -4977,149 +4977,149 @@
       <c r="F108" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G108" s="9"/>
+      <c r="G108" s="10"/>
     </row>
     <row r="109">
       <c r="B109" s="45">
         <v>8.0</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="10" t="s">
         <v>235</v>
       </c>
       <c r="D109" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>48</v>
+        <v>165</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F109" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G109" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="G109" s="10"/>
     </row>
     <row r="110">
       <c r="B110" s="45">
         <v>9.0</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="10" t="s">
         <v>236</v>
       </c>
       <c r="D110" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>48</v>
+        <v>165</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F110" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G110" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="G110" s="10"/>
     </row>
     <row r="111">
       <c r="B111" s="45">
         <v>10.0</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>237</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>48</v>
+        <v>113</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F111" s="50" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G111" s="51" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="45">
         <v>11.0</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>238</v>
       </c>
       <c r="D112" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>48</v>
+        <v>165</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F112" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G112" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="G112" s="10"/>
     </row>
     <row r="113">
       <c r="B113" s="45">
         <v>12.0</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="10" t="s">
         <v>239</v>
       </c>
       <c r="D113" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>48</v>
+        <v>165</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F113" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G113" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="G113" s="10"/>
     </row>
     <row r="114">
       <c r="B114" s="45">
         <v>13.0</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D114" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>48</v>
+        <v>165</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F114" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G114" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="G114" s="10"/>
     </row>
     <row r="115">
       <c r="B115" s="45">
         <v>14.0</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="10" t="s">
         <v>241</v>
       </c>
       <c r="D115" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>48</v>
+        <v>165</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F115" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G115" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="G115" s="10"/>
     </row>
     <row r="116">
       <c r="B116" s="45">
         <v>15.0</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9" t="s">
-        <v>48</v>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F116" s="50" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G116" s="51" t="s">
         <v>243</v>
@@ -5129,17 +5129,17 @@
       <c r="B117" s="45">
         <v>16.0</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="10" t="s">
         <v>244</v>
       </c>
       <c r="D117" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F117" s="50" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G117" s="51" t="s">
         <v>245</v>
@@ -5149,38 +5149,38 @@
       <c r="B118" s="45">
         <v>17.0</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>176</v>
+      <c r="C118" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D118" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>48</v>
+        <v>165</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F118" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G118" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="G118" s="10"/>
     </row>
     <row r="119">
       <c r="B119" s="45">
         <v>18.0</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>246</v>
       </c>
       <c r="D119" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>48</v>
+        <v>146</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F119" s="50" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123">
@@ -5193,19 +5193,19 @@
         <v>202</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D124" s="44" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125">
@@ -5216,7 +5216,7 @@
         <v>248</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E125" s="53" t="s">
         <v>221</v>
@@ -5234,7 +5234,7 @@
         <v>249</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E126" s="53" t="s">
         <v>221</v>
@@ -5252,7 +5252,7 @@
         <v>250</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E127" s="53" t="s">
         <v>221</v>
@@ -5270,7 +5270,7 @@
         <v>251</v>
       </c>
       <c r="D128" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E128" s="53" t="s">
         <v>221</v>
@@ -5290,19 +5290,19 @@
         <v>202</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D132" s="44" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G132" s="31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133">
@@ -5310,10 +5310,10 @@
         <v>1.0</v>
       </c>
       <c r="C133" s="57" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D133" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E133" s="46" t="s">
         <v>253</v>
@@ -5328,10 +5328,10 @@
         <v>2.0</v>
       </c>
       <c r="C134" s="57" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D134" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E134" s="46" t="s">
         <v>253</v>
@@ -5346,10 +5346,10 @@
         <v>3.0</v>
       </c>
       <c r="C135" s="57" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D135" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E135" s="46" t="s">
         <v>253</v>
@@ -5364,10 +5364,10 @@
         <v>4.0</v>
       </c>
       <c r="C136" s="57" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D136" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E136" s="46" t="s">
         <v>253</v>
@@ -5382,10 +5382,10 @@
         <v>5.0</v>
       </c>
       <c r="C137" s="57" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D137" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E137" s="46" t="s">
         <v>253</v>
@@ -5400,10 +5400,10 @@
         <v>6.0</v>
       </c>
       <c r="C138" s="57" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D138" s="46" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="E138" s="46" t="s">
         <v>253</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="141">
       <c r="B141" s="62" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -5441,22 +5441,22 @@
     </row>
     <row r="142">
       <c r="B142" s="31" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="G142" s="31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143">
@@ -5464,16 +5464,16 @@
         <v>1.0</v>
       </c>
       <c r="C143" s="64" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E143" s="65">
         <v>43942.0</v>
       </c>
       <c r="F143" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G143" s="61"/>
     </row>
@@ -5482,16 +5482,16 @@
         <v>2.0</v>
       </c>
       <c r="C144" s="64" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E144" s="65">
         <v>43942.0</v>
       </c>
       <c r="F144" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G144" s="61"/>
     </row>
@@ -5500,16 +5500,16 @@
         <v>3.0</v>
       </c>
       <c r="C145" s="64" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E145" s="65">
         <v>43942.0</v>
       </c>
       <c r="F145" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G145" s="61"/>
     </row>
@@ -5518,16 +5518,16 @@
         <v>4.0</v>
       </c>
       <c r="C146" s="64" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D146" s="61" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E146" s="65">
         <v>43942.0</v>
       </c>
       <c r="F146" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G146" s="66"/>
     </row>
@@ -5536,16 +5536,16 @@
         <v>5.0</v>
       </c>
       <c r="C147" s="64" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D147" s="61" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E147" s="65">
         <v>43942.0</v>
       </c>
       <c r="F147" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G147" s="61"/>
     </row>
@@ -5554,16 +5554,16 @@
         <v>6.0</v>
       </c>
       <c r="C148" s="64" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D148" s="61" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E148" s="65">
         <v>43942.0</v>
       </c>
       <c r="F148" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G148" s="61"/>
     </row>
@@ -5572,16 +5572,16 @@
         <v>7.0</v>
       </c>
       <c r="C149" s="64" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D149" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E149" s="65">
         <v>43945.0</v>
       </c>
       <c r="F149" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G149" s="61"/>
     </row>
@@ -5590,16 +5590,16 @@
         <v>8.0</v>
       </c>
       <c r="C150" s="64" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D150" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E150" s="65">
         <v>43945.0</v>
       </c>
       <c r="F150" s="61" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G150" s="61"/>
     </row>
@@ -5608,16 +5608,16 @@
         <v>9.0</v>
       </c>
       <c r="C151" s="64" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D151" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E151" s="65">
         <v>43945.0</v>
       </c>
       <c r="F151" s="61" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G151" s="61"/>
     </row>
@@ -5626,16 +5626,16 @@
         <v>10.0</v>
       </c>
       <c r="C152" s="64" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D152" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E152" s="65">
         <v>43945.0</v>
       </c>
       <c r="F152" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G152" s="61"/>
     </row>
@@ -5644,19 +5644,19 @@
         <v>11.0</v>
       </c>
       <c r="C153" s="64" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D153" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E153" s="65">
         <v>43951.0</v>
       </c>
       <c r="F153" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G153" s="67" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154">
@@ -5664,16 +5664,16 @@
         <v>12.0</v>
       </c>
       <c r="C154" s="64" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D154" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E154" s="65">
         <v>43951.0</v>
       </c>
       <c r="F154" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G154" s="27"/>
     </row>
@@ -5682,16 +5682,16 @@
         <v>13.0</v>
       </c>
       <c r="C155" s="64" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D155" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E155" s="65">
         <v>43951.0</v>
       </c>
       <c r="F155" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G155" s="27"/>
     </row>
@@ -5700,16 +5700,16 @@
         <v>14.0</v>
       </c>
       <c r="C156" s="64" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D156" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E156" s="65">
         <v>43951.0</v>
       </c>
       <c r="F156" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G156" s="28"/>
     </row>
@@ -5718,16 +5718,16 @@
         <v>15.0</v>
       </c>
       <c r="C157" s="64" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D157" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E157" s="65">
         <v>43951.0</v>
       </c>
       <c r="F157" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G157" s="61"/>
     </row>
@@ -5736,16 +5736,16 @@
         <v>16.0</v>
       </c>
       <c r="C158" s="64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D158" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E158" s="65">
         <v>43951.0</v>
       </c>
       <c r="F158" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G158" s="61"/>
     </row>
@@ -5754,16 +5754,16 @@
         <v>17.0</v>
       </c>
       <c r="C159" s="64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D159" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E159" s="65">
         <v>43951.0</v>
       </c>
       <c r="F159" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G159" s="61"/>
     </row>
@@ -5775,13 +5775,13 @@
         <v>188</v>
       </c>
       <c r="D160" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E160" s="65">
         <v>43956.0</v>
       </c>
       <c r="F160" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G160" s="61"/>
     </row>
@@ -5793,13 +5793,13 @@
         <v>189</v>
       </c>
       <c r="D161" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E161" s="65">
         <v>43956.0</v>
       </c>
       <c r="F161" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G161" s="61"/>
     </row>
@@ -5811,13 +5811,13 @@
         <v>190</v>
       </c>
       <c r="D162" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E162" s="65">
         <v>43956.0</v>
       </c>
       <c r="F162" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G162" s="61"/>
     </row>
@@ -5829,13 +5829,13 @@
         <v>191</v>
       </c>
       <c r="D163" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E163" s="65">
         <v>43956.0</v>
       </c>
       <c r="F163" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G163" s="61"/>
     </row>
@@ -5847,13 +5847,13 @@
         <v>192</v>
       </c>
       <c r="D164" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E164" s="65">
         <v>43958.0</v>
       </c>
       <c r="F164" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G164" s="61"/>
     </row>
@@ -5865,13 +5865,13 @@
         <v>193</v>
       </c>
       <c r="D165" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E165" s="65">
         <v>43958.0</v>
       </c>
       <c r="F165" s="61" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G165" s="61"/>
     </row>
@@ -5883,13 +5883,13 @@
         <v>194</v>
       </c>
       <c r="D166" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E166" s="65">
         <v>43958.0</v>
       </c>
       <c r="F166" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G166" s="61"/>
     </row>
@@ -5901,13 +5901,13 @@
         <v>195</v>
       </c>
       <c r="D167" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E167" s="65">
         <v>43958.0</v>
       </c>
       <c r="F167" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G167" s="61"/>
     </row>
@@ -5919,13 +5919,13 @@
         <v>196</v>
       </c>
       <c r="D168" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E168" s="65">
         <v>43958.0</v>
       </c>
       <c r="F168" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G168" s="61"/>
     </row>
@@ -5937,13 +5937,13 @@
         <v>197</v>
       </c>
       <c r="D169" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E169" s="65">
         <v>43962.0</v>
       </c>
       <c r="F169" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G169" s="61"/>
     </row>
@@ -5955,13 +5955,13 @@
         <v>198</v>
       </c>
       <c r="D170" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E170" s="65">
         <v>43962.0</v>
       </c>
       <c r="F170" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G170" s="61"/>
     </row>
@@ -5973,13 +5973,13 @@
         <v>199</v>
       </c>
       <c r="D171" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E171" s="65">
         <v>43962.0</v>
       </c>
       <c r="F171" s="61" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G171" s="61"/>
     </row>
@@ -5991,13 +5991,13 @@
         <v>200</v>
       </c>
       <c r="D172" s="61" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E172" s="65">
         <v>43962.0</v>
       </c>
       <c r="F172" s="61" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G172" s="61"/>
     </row>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="204">
       <c r="C204" s="89" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">

--- a/WSI_MCP_TestData.xlsx
+++ b/WSI_MCP_TestData.xlsx
@@ -17,12 +17,12 @@
     <t>DataType</t>
   </si>
   <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
     <t>AttributeType</t>
   </si>
   <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
     <t>InternalName</t>
   </si>
   <si>
@@ -113,33 +113,162 @@
     <t>DBSequences</t>
   </si>
   <si>
+    <t>UserRoles</t>
+  </si>
+  <si>
+    <t>FitToSize</t>
+  </si>
+  <si>
+    <t>MaxFileSize</t>
+  </si>
+  <si>
+    <t>SupportedType</t>
+  </si>
+  <si>
+    <t>ReferenceEntity</t>
+  </si>
+  <si>
+    <t>ReferenceAttribute</t>
+  </si>
+  <si>
+    <t>MasterList</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Multi List</t>
+  </si>
+  <si>
+    <t>QA_ML_IN</t>
+  </si>
+  <si>
+    <t>QA_ML_DN</t>
+  </si>
+  <si>
+    <t>QA_DESC</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>QA_TT</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>QA_FORMULA</t>
+  </si>
+  <si>
+    <t>QA_D</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Single List</t>
+  </si>
+  <si>
+    <t>QA_SL_IN</t>
+  </si>
+  <si>
+    <t>QA_SL_DN</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>QA_TEXT_IN</t>
+  </si>
+  <si>
+    <t>QA_TEXT_DN</t>
+  </si>
+  <si>
+    <t>Text Area</t>
+  </si>
+  <si>
+    <t>QA_TEXTAREA_IN</t>
+  </si>
+  <si>
+    <t>QA_TEXTAREA_DN</t>
+  </si>
+  <si>
+    <t>Single Line</t>
+  </si>
+  <si>
+    <t>Multi Entry</t>
+  </si>
+  <si>
+    <t>QA_MULTIENTRY_IN</t>
+  </si>
+  <si>
+    <t>QA_MULTIENTRY_DN</t>
+  </si>
+  <si>
+    <t>Derived String</t>
+  </si>
+  <si>
+    <t>QA_DSTRING_IN</t>
+  </si>
+  <si>
+    <t>QA_DSTRING_DN</t>
+  </si>
+  <si>
+    <t>Driven</t>
+  </si>
+  <si>
+    <t>QA_DRIVEN_IN</t>
+  </si>
+  <si>
+    <t>QA_DRIVEN_DN</t>
+  </si>
+  <si>
+    <t>Version Reference</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>QA_VRREF_IN</t>
+  </si>
+  <si>
+    <t>QA_VRREF_DN</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>QA_OSA</t>
+  </si>
+  <si>
+    <t>QA_OSE</t>
+  </si>
+  <si>
+    <t>Object Reference</t>
+  </si>
+  <si>
+    <t>QA_ORREF_IN</t>
+  </si>
+  <si>
+    <t>QA_ORREF_DN</t>
+  </si>
+  <si>
+    <t>Date Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>QA_DATE_IN</t>
+  </si>
+  <si>
+    <t>QA_DATE_DN</t>
+  </si>
+  <si>
     <t>Attributes</t>
   </si>
   <si>
-    <t>UserRoles</t>
-  </si>
-  <si>
-    <t>FitToSize</t>
-  </si>
-  <si>
-    <t>MaxFileSize</t>
-  </si>
-  <si>
-    <t>SupportedType</t>
-  </si>
-  <si>
-    <t>ReferenceEntity</t>
-  </si>
-  <si>
-    <t>ReferenceAttribute</t>
-  </si>
-  <si>
-    <t>MasterList</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>Manual Testing</t>
   </si>
   <si>
@@ -149,87 +278,54 @@
     <t>ETA</t>
   </si>
   <si>
-    <t>Multi List</t>
-  </si>
-  <si>
-    <t>QA_ML_IN</t>
-  </si>
-  <si>
-    <t>QA_ML_DN</t>
-  </si>
-  <si>
-    <t>QA_DESC</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>QA_TT</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>QA_FORMULA</t>
+    <t>Integer Number</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>QA_INT_IN</t>
+  </si>
+  <si>
+    <t>QA_INT_DN</t>
   </si>
   <si>
     <t>1-MULTI LIST</t>
   </si>
   <si>
-    <t>QA_D</t>
-  </si>
-  <si>
     <t>WORKING FINE</t>
   </si>
   <si>
-    <t>Season</t>
-  </si>
-  <si>
     <t>In Progress</t>
   </si>
   <si>
     <t>2 Days</t>
   </si>
   <si>
-    <t>Single List</t>
-  </si>
-  <si>
-    <t>QA_SL_IN</t>
-  </si>
-  <si>
-    <t>QA_SL_DN</t>
+    <t>Real Number</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>QA_FLOAT_IN</t>
+  </si>
+  <si>
+    <t>QA_FLOAT_DN</t>
   </si>
   <si>
     <t>Automation Steps Performed</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>QA_TEXT_IN</t>
-  </si>
-  <si>
-    <t>QA_TEXT_DN</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>2-SINGLE LIST</t>
   </si>
   <si>
-    <t>Text Area</t>
-  </si>
-  <si>
-    <t>QA_TEXTAREA_IN</t>
-  </si>
-  <si>
-    <t>QA_TEXTAREA_DN</t>
-  </si>
-  <si>
     <t>Verification of All fields</t>
   </si>
   <si>
@@ -239,112 +335,73 @@
     <t>3-TEXT</t>
   </si>
   <si>
-    <t>Single Line</t>
-  </si>
-  <si>
-    <t>Multi Entry</t>
-  </si>
-  <si>
-    <t>QA_MULTIENTRY_IN</t>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>QA_CURRENCY_IN</t>
+  </si>
+  <si>
+    <t>QA_CURRENCY_DN</t>
   </si>
   <si>
     <t>Creation of Attributes</t>
   </si>
   <si>
-    <t>QA_MULTIENTRY_DN</t>
-  </si>
-  <si>
     <t>4-TEXT AREA</t>
   </si>
   <si>
     <t>SCMPC-2596</t>
   </si>
   <si>
-    <t>Derived String</t>
-  </si>
-  <si>
-    <t>QA_DSTRING_IN</t>
-  </si>
-  <si>
-    <t>QA_DSTRING_DN</t>
-  </si>
-  <si>
     <t>SINGLE LINE RADIO BUTTON BUG</t>
   </si>
   <si>
     <t>Verifying Attributes value in the grid</t>
   </si>
   <si>
-    <t>Driven</t>
-  </si>
-  <si>
-    <t>QA_DRIVEN_IN</t>
-  </si>
-  <si>
-    <t>QA_DRIVEN_DN</t>
-  </si>
-  <si>
     <t xml:space="preserve">5-MULTI ENTRY </t>
   </si>
   <si>
-    <t>Version Reference</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>QA_VRREF_IN</t>
-  </si>
-  <si>
-    <t>QA_VRREF_DN</t>
+    <t>INR</t>
   </si>
   <si>
     <t>Modify the Attribute values</t>
   </si>
   <si>
-    <t/>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>QA_BOOL_IN</t>
   </si>
   <si>
     <t xml:space="preserve">6-DERIVED STRING </t>
   </si>
   <si>
+    <t>QA_BOOL_DN</t>
+  </si>
+  <si>
     <t>Verify the modified attributes in the grid</t>
   </si>
   <si>
-    <t>QA_OSA</t>
-  </si>
-  <si>
-    <t>QA_OSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">7-DRIVEN </t>
   </si>
   <si>
-    <t>Object Reference</t>
-  </si>
-  <si>
-    <t>QA_ORREF_IN</t>
-  </si>
-  <si>
-    <t>QA_ORREF_DN</t>
-  </si>
-  <si>
     <t>Delete the Attribute</t>
   </si>
   <si>
     <t>8-VERSION REFERENCE</t>
   </si>
   <si>
-    <t>Date Time</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>QA_DATE_IN</t>
-  </si>
-  <si>
-    <t>QA_DATE_DN</t>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>QA_SEQ_IN</t>
+  </si>
+  <si>
+    <t>QA_SEQ_DN</t>
   </si>
   <si>
     <t>9-OBJECT REFERENCE</t>
@@ -356,19 +413,19 @@
     <t>SCMPC-2428</t>
   </si>
   <si>
-    <t>Integer Number</t>
-  </si>
-  <si>
-    <t>Integer</t>
+    <t>ATTR_INFO_SEQ</t>
   </si>
   <si>
     <t>DEFAULT VALUE ISSUE</t>
   </si>
   <si>
-    <t>QA_INT_IN</t>
-  </si>
-  <si>
-    <t>QA_INT_DN</t>
+    <t>User Ref</t>
+  </si>
+  <si>
+    <t>QA_UREF_IN</t>
+  </si>
+  <si>
+    <t>QA_UREF_DN</t>
   </si>
   <si>
     <t>11-INT</t>
@@ -377,132 +434,78 @@
     <t>12-FLOAT</t>
   </si>
   <si>
-    <t>Real Number</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>QA_FLOAT_IN</t>
-  </si>
-  <si>
-    <t>QA_FLOAT_DN</t>
+    <t>SYSTEM ADMINISTRATOR</t>
   </si>
   <si>
     <t>13-CURRENCY</t>
   </si>
   <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>QA_URL_IN</t>
+  </si>
+  <si>
+    <t>QA_URL_DN</t>
+  </si>
+  <si>
     <t>14-BOOLEAN-</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>QA_CURRENCY_IN</t>
-  </si>
-  <si>
     <t>15-REFERENCE</t>
   </si>
   <si>
-    <t>QA_CURRENCY_DN</t>
-  </si>
-  <si>
     <t>Waiting for build to verify again</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>-COLUMN EXHAUSTED BUG</t>
   </si>
   <si>
+    <t>QA_IMG_IN</t>
+  </si>
+  <si>
+    <t>QA_IMG_DN</t>
+  </si>
+  <si>
     <t xml:space="preserve">16-UREF - </t>
   </si>
   <si>
     <t>SCMPC-2412</t>
   </si>
   <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>QA_BOOL_IN</t>
-  </si>
-  <si>
     <t>USERROLES =ID DISPLAYING ISSUE</t>
   </si>
   <si>
-    <t>QA_BOOL_DN</t>
-  </si>
-  <si>
     <t>17-URL-WORKING FINE</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>Sequence Name</t>
-  </si>
-  <si>
-    <t>QA_SEQ_IN</t>
-  </si>
-  <si>
-    <t>QA_SEQ_DN</t>
-  </si>
-  <si>
     <t>18-IMAGE-</t>
   </si>
   <si>
     <t>SCMPC-2597</t>
   </si>
   <si>
-    <t>ATTR_INFO_SEQ</t>
+    <t>png</t>
   </si>
   <si>
     <t>MAX FILE SIZE ISSUE</t>
   </si>
   <si>
-    <t>User Ref</t>
-  </si>
-  <si>
-    <t>QA_UREF_IN</t>
-  </si>
-  <si>
-    <t>QA_UREF_DN</t>
-  </si>
-  <si>
     <t>Sprint 6/7</t>
   </si>
   <si>
-    <t>SYSTEM ADMINISTRATOR</t>
-  </si>
-  <si>
-    <t>Hyperlink</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>QA_URL_IN</t>
-  </si>
-  <si>
-    <t>QA_URL_DN</t>
-  </si>
-  <si>
     <t>Sl.No</t>
   </si>
   <si>
     <t>Features</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>QA_IMG_IN</t>
-  </si>
-  <si>
-    <t>QA_IMG_DN</t>
-  </si>
-  <si>
     <t>Complexity</t>
   </si>
   <si>
@@ -510,9 +513,6 @@
   </si>
   <si>
     <t>Working Fine</t>
-  </si>
-  <si>
-    <t>png</t>
   </si>
   <si>
     <t>Low</t>
@@ -885,7 +885,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -895,13 +894,14 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1120,59 +1120,59 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1180,17 +1180,17 @@
     <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1206,31 +1206,31 @@
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1239,71 +1239,71 @@
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1336,16 +1336,16 @@
     <xf borderId="4" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="7" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1357,7 +1357,7 @@
     <xf borderId="4" fillId="14" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1381,19 +1381,19 @@
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1724,1759 +1724,1759 @@
         <v>32</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="P2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="R2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="R3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="AM3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="6" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="R4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="R5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="U5" s="2">
         <v>50.0</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="6">
+      <c r="V5" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="2">
         <v>55.0</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T6" s="2">
         <v>62.0</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U6" s="2">
         <v>50.0</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V6" s="2">
         <v>60.0</v>
       </c>
-      <c r="AM2" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="P7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="R7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="R8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="AM8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>43891.0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="R12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="R13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="AB13" s="2">
         <v>50.0</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="6">
+      <c r="AC13" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="17">
+        <v>50.0</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="X14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>45.0</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>50.0</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="AE14" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="2">
         <v>55.0</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="T19" s="2">
         <v>62.0</v>
       </c>
-      <c r="U3" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="V3" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="T4" s="6">
-        <v>62.0</v>
-      </c>
-      <c r="U4" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="V4" s="6">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="T5" s="6">
-        <v>62.0</v>
-      </c>
-      <c r="U5" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="V5" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="T6" s="6">
-        <v>62.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="T7" s="6">
-        <v>62.0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="V7" s="6">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="T8" s="6">
-        <v>62.0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="V8" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="AM8" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC9" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD9" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC10" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>43891.0</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD11" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="AD13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="20">
-        <v>50.0</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="V14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="W14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="X14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA14" s="20">
-        <v>45.0</v>
-      </c>
-      <c r="AB14" s="20">
-        <v>50.0</v>
-      </c>
-      <c r="AC14" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="AD14" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC15" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD15" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG17" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ17" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC18" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD18" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S19" s="6">
-        <v>55.0</v>
-      </c>
-      <c r="T19" s="6">
-        <v>62.0</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI19" s="6">
+      <c r="U19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI19" s="2">
         <v>28.0</v>
       </c>
-      <c r="AJ19" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
+      <c r="AJ19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3504,638 +3504,638 @@
   </cols>
   <sheetData>
     <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
+      <c r="B6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="I7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>67</v>
+      <c r="B7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="I7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="I8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>73</v>
+      <c r="B8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="I9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>73</v>
+      <c r="B9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>58</v>
+      <c r="B10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="I11" s="12" t="s">
+      <c r="B11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>58</v>
+      <c r="E11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="I12" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>58</v>
+      <c r="B12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="I13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>58</v>
+      <c r="B13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="I13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15">
-      <c r="B15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16">
-      <c r="B16" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="15"/>
+      <c r="B16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="21"/>
     </row>
     <row r="17">
-      <c r="B17" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18">
-      <c r="B18" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19">
-      <c r="B19" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20">
-      <c r="B20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21">
-      <c r="B21" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="15"/>
+      <c r="B21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="21"/>
     </row>
     <row r="22">
-      <c r="B22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="15"/>
+      <c r="B22" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="21"/>
     </row>
     <row r="23">
-      <c r="B23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="B23" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24">
-      <c r="B24" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="15"/>
+      <c r="B24" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="21"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32">
       <c r="A32" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>51</v>
+      <c r="C32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8">
+      <c r="A33" s="13">
         <v>1.0</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>58</v>
+      <c r="C33" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E33" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="8">
+      <c r="A34" s="13">
         <v>2.0</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>58</v>
+      <c r="C34" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E34" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35">
-      <c r="A35" s="8">
+      <c r="A35" s="13">
         <v>3.0</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>58</v>
+      <c r="C35" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E35" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36">
-      <c r="A36" s="8">
+      <c r="A36" s="13">
         <v>4.0</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>58</v>
+      <c r="C36" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E36" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="8">
+      <c r="A37" s="13">
         <v>5.0</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>58</v>
+      <c r="C37" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E37" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38">
-      <c r="A38" s="8">
+      <c r="A38" s="13">
         <v>6.0</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>58</v>
+      <c r="C38" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E38" s="24">
         <v>43942.0</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39">
-      <c r="A39" s="8">
+      <c r="A39" s="13">
         <v>7.0</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E39" s="24">
         <v>43945.0</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="10"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40">
-      <c r="A40" s="8">
+      <c r="A40" s="13">
         <v>8.0</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E40" s="24">
         <v>43945.0</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G40" s="10"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41">
-      <c r="A41" s="8">
+      <c r="A41" s="13">
         <v>9.0</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E41" s="24">
         <v>43945.0</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42">
-      <c r="A42" s="8">
+      <c r="A42" s="13">
         <v>10.0</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E42" s="24">
         <v>43945.0</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="10"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43">
-      <c r="A43" s="8">
+      <c r="A43" s="13">
         <v>11.0</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E43" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G43" s="26" t="s">
@@ -4143,365 +4143,365 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8">
+      <c r="A44" s="13">
         <v>12.0</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E44" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G44" s="27"/>
     </row>
     <row r="45">
-      <c r="A45" s="8">
+      <c r="A45" s="13">
         <v>13.0</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="14"/>
+      <c r="D45" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E45" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G45" s="27"/>
     </row>
     <row r="46">
-      <c r="A46" s="8">
+      <c r="A46" s="13">
         <v>14.0</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="14"/>
+      <c r="D46" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E46" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="13" t="s">
         <v>175</v>
       </c>
       <c r="G46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="8">
+      <c r="A47" s="13">
         <v>15.0</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="14"/>
+      <c r="D47" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E47" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="14"/>
     </row>
     <row r="48">
-      <c r="A48" s="8">
+      <c r="A48" s="13">
         <v>16.0</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="14"/>
+      <c r="D48" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E48" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G48" s="10"/>
+      <c r="G48" s="14"/>
     </row>
     <row r="49">
-      <c r="A49" s="8">
+      <c r="A49" s="13">
         <v>17.0</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="14"/>
+      <c r="D49" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E49" s="24">
         <v>43951.0</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G49" s="10"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50">
-      <c r="A50" s="8">
+      <c r="A50" s="13">
         <v>18.0</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="14"/>
+      <c r="D50" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E50" s="24">
         <v>43956.0</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G50" s="10"/>
+      <c r="G50" s="14"/>
     </row>
     <row r="51">
-      <c r="A51" s="8">
+      <c r="A51" s="13">
         <v>19.0</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="14"/>
+      <c r="D51" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E51" s="24">
         <v>43956.0</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G51" s="10"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52">
-      <c r="A52" s="8">
+      <c r="A52" s="13">
         <v>20.0</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="14"/>
+      <c r="D52" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E52" s="24">
         <v>43956.0</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G52" s="10"/>
+      <c r="G52" s="14"/>
     </row>
     <row r="53">
-      <c r="A53" s="8">
+      <c r="A53" s="13">
         <v>21.0</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="14"/>
+      <c r="D53" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E53" s="24">
         <v>43956.0</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54">
-      <c r="A54" s="8">
+      <c r="A54" s="13">
         <v>22.0</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="14"/>
+      <c r="D54" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E54" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="10"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55">
-      <c r="A55" s="8">
+      <c r="A55" s="13">
         <v>23.0</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="14"/>
+      <c r="D55" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E55" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="G55" s="10"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56">
-      <c r="A56" s="8">
+      <c r="A56" s="13">
         <v>24.0</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="14"/>
+      <c r="D56" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E56" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G56" s="10"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57">
-      <c r="A57" s="8">
+      <c r="A57" s="13">
         <v>25.0</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E57" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G57" s="10"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58">
-      <c r="A58" s="8">
+      <c r="A58" s="13">
         <v>26.0</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="14"/>
+      <c r="D58" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E58" s="24">
         <v>43958.0</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G58" s="10"/>
+      <c r="G58" s="14"/>
     </row>
     <row r="59">
-      <c r="A59" s="8">
+      <c r="A59" s="13">
         <v>27.0</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E59" s="24">
         <v>43962.0</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G59" s="10"/>
+      <c r="G59" s="14"/>
     </row>
     <row r="60">
-      <c r="A60" s="8">
+      <c r="A60" s="13">
         <v>28.0</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="8" t="s">
+      <c r="C60" s="14"/>
+      <c r="D60" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E60" s="24">
         <v>43962.0</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G60" s="10"/>
+      <c r="G60" s="14"/>
     </row>
     <row r="61">
-      <c r="A61" s="8">
+      <c r="A61" s="13">
         <v>29.0</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="8" t="s">
+      <c r="C61" s="14"/>
+      <c r="D61" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E61" s="24">
         <v>43962.0</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="10"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62">
-      <c r="A62" s="8">
+      <c r="A62" s="13">
         <v>30.0</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="14"/>
+      <c r="D62" s="13" t="s">
         <v>174</v>
       </c>
       <c r="E62" s="24">
         <v>43962.0</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G62" s="10"/>
+      <c r="G62" s="14"/>
     </row>
     <row r="69">
       <c r="B69" s="30" t="s">
@@ -4513,19 +4513,19 @@
         <v>202</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>203</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
@@ -4600,19 +4600,19 @@
         <v>202</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D79" s="32" t="s">
         <v>203</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
-      <c r="F84" s="10"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="27"/>
     </row>
     <row r="85">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="10"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="28"/>
     </row>
     <row r="88">
@@ -4711,19 +4711,19 @@
         <v>202</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D89" s="32" t="s">
         <v>203</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="13" t="s">
         <v>206</v>
       </c>
       <c r="G94" s="27"/>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="13" t="s">
         <v>206</v>
       </c>
       <c r="G95" s="27"/>
@@ -4823,14 +4823,14 @@
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="13" t="s">
         <v>206</v>
       </c>
       <c r="G96" s="28"/>
     </row>
     <row r="100">
       <c r="B100" s="43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -4838,30 +4838,30 @@
         <v>202</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D101" s="44" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="45">
         <v>1.0</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="14" t="s">
         <v>228</v>
       </c>
       <c r="D102" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E102" s="47" t="s">
         <v>221</v>
@@ -4869,17 +4869,17 @@
       <c r="F102" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G102" s="10"/>
+      <c r="G102" s="14"/>
     </row>
     <row r="103">
       <c r="B103" s="45">
         <v>2.0</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="14" t="s">
         <v>229</v>
       </c>
       <c r="D103" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E103" s="47" t="s">
         <v>221</v>
@@ -4887,17 +4887,17 @@
       <c r="F103" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G103" s="10"/>
+      <c r="G103" s="14"/>
     </row>
     <row r="104">
       <c r="B104" s="45">
         <v>3.0</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="14" t="s">
         <v>230</v>
       </c>
       <c r="D104" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E104" s="47" t="s">
         <v>221</v>
@@ -4905,35 +4905,35 @@
       <c r="F104" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G104" s="10"/>
+      <c r="G104" s="14"/>
     </row>
     <row r="105">
       <c r="B105" s="45">
         <v>4.0</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="14" t="s">
         <v>231</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>58</v>
+        <v>112</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F105" s="50"/>
       <c r="G105" s="51" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="45">
         <v>5.0</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="14" t="s">
         <v>232</v>
       </c>
       <c r="D106" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E106" s="47" t="s">
         <v>221</v>
@@ -4941,17 +4941,17 @@
       <c r="F106" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G106" s="10"/>
+      <c r="G106" s="14"/>
     </row>
     <row r="107">
       <c r="B107" s="45">
         <v>6.0</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="14" t="s">
         <v>233</v>
       </c>
       <c r="D107" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E107" s="47" t="s">
         <v>221</v>
@@ -4959,17 +4959,17 @@
       <c r="F107" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G107" s="10"/>
+      <c r="G107" s="14"/>
     </row>
     <row r="108">
       <c r="B108" s="45">
         <v>7.0</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="14" t="s">
         <v>234</v>
       </c>
       <c r="D108" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E108" s="47" t="s">
         <v>221</v>
@@ -4977,149 +4977,149 @@
       <c r="F108" s="48">
         <v>43936.0</v>
       </c>
-      <c r="G108" s="10"/>
+      <c r="G108" s="14"/>
     </row>
     <row r="109">
       <c r="B109" s="45">
         <v>8.0</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="14" t="s">
         <v>235</v>
       </c>
       <c r="D109" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>58</v>
+        <v>166</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F109" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G109" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="G109" s="14"/>
     </row>
     <row r="110">
       <c r="B110" s="45">
         <v>9.0</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="14" t="s">
         <v>236</v>
       </c>
       <c r="D110" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>58</v>
+        <v>166</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F110" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G110" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="G110" s="14"/>
     </row>
     <row r="111">
       <c r="B111" s="45">
         <v>10.0</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="14" t="s">
         <v>237</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>58</v>
+        <v>132</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F111" s="50" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G111" s="51" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="45">
         <v>11.0</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="14" t="s">
         <v>238</v>
       </c>
       <c r="D112" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>58</v>
+        <v>166</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F112" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G112" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="G112" s="14"/>
     </row>
     <row r="113">
       <c r="B113" s="45">
         <v>12.0</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="14" t="s">
         <v>239</v>
       </c>
       <c r="D113" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>58</v>
+        <v>166</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F113" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G113" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="G113" s="14"/>
     </row>
     <row r="114">
       <c r="B114" s="45">
         <v>13.0</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="14" t="s">
         <v>240</v>
       </c>
       <c r="D114" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>58</v>
+        <v>166</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F114" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G114" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="G114" s="14"/>
     </row>
     <row r="115">
       <c r="B115" s="45">
         <v>14.0</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="14" t="s">
         <v>241</v>
       </c>
       <c r="D115" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>58</v>
+        <v>166</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F115" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G115" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="G115" s="14"/>
     </row>
     <row r="116">
       <c r="B116" s="45">
         <v>15.0</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10" t="s">
-        <v>58</v>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F116" s="50" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G116" s="51" t="s">
         <v>243</v>
@@ -5129,17 +5129,17 @@
       <c r="B117" s="45">
         <v>16.0</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="14" t="s">
         <v>244</v>
       </c>
       <c r="D117" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>58</v>
+        <v>154</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F117" s="50" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G117" s="51" t="s">
         <v>245</v>
@@ -5149,38 +5149,38 @@
       <c r="B118" s="45">
         <v>17.0</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>155</v>
+      <c r="C118" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="D118" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>58</v>
+        <v>166</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F118" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G118" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="G118" s="14"/>
     </row>
     <row r="119">
       <c r="B119" s="45">
         <v>18.0</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="14" t="s">
         <v>246</v>
       </c>
       <c r="D119" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>58</v>
+        <v>158</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="F119" s="50" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
@@ -5193,19 +5193,19 @@
         <v>202</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D124" s="44" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125">
@@ -5216,7 +5216,7 @@
         <v>248</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E125" s="53" t="s">
         <v>221</v>
@@ -5234,7 +5234,7 @@
         <v>249</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E126" s="53" t="s">
         <v>221</v>
@@ -5252,7 +5252,7 @@
         <v>250</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E127" s="53" t="s">
         <v>221</v>
@@ -5270,7 +5270,7 @@
         <v>251</v>
       </c>
       <c r="D128" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E128" s="53" t="s">
         <v>221</v>
@@ -5290,19 +5290,19 @@
         <v>202</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D132" s="44" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G132" s="31" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133">
@@ -5310,10 +5310,10 @@
         <v>1.0</v>
       </c>
       <c r="C133" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D133" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E133" s="46" t="s">
         <v>253</v>
@@ -5331,7 +5331,7 @@
         <v>168</v>
       </c>
       <c r="D134" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E134" s="46" t="s">
         <v>253</v>
@@ -5349,7 +5349,7 @@
         <v>169</v>
       </c>
       <c r="D135" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E135" s="46" t="s">
         <v>253</v>
@@ -5367,7 +5367,7 @@
         <v>170</v>
       </c>
       <c r="D136" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E136" s="46" t="s">
         <v>253</v>
@@ -5385,7 +5385,7 @@
         <v>171</v>
       </c>
       <c r="D137" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E137" s="46" t="s">
         <v>253</v>
@@ -5403,7 +5403,7 @@
         <v>172</v>
       </c>
       <c r="D138" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E138" s="46" t="s">
         <v>253</v>
@@ -5431,32 +5431,32 @@
     </row>
     <row r="141">
       <c r="B141" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="9"/>
     </row>
     <row r="142">
       <c r="B142" s="31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C142" s="31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G142" s="31" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143">
@@ -5464,10 +5464,10 @@
         <v>1.0</v>
       </c>
       <c r="C143" s="64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D143" s="61" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E143" s="65">
         <v>43942.0</v>
@@ -5485,7 +5485,7 @@
         <v>168</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E144" s="65">
         <v>43942.0</v>
@@ -5503,7 +5503,7 @@
         <v>169</v>
       </c>
       <c r="D145" s="61" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E145" s="65">
         <v>43942.0</v>
@@ -5521,7 +5521,7 @@
         <v>170</v>
       </c>
       <c r="D146" s="61" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E146" s="65">
         <v>43942.0</v>
@@ -5539,7 +5539,7 @@
         <v>171</v>
       </c>
       <c r="D147" s="61" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E147" s="65">
         <v>43942.0</v>
@@ -5557,7 +5557,7 @@
         <v>172</v>
       </c>
       <c r="D148" s="61" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E148" s="65">
         <v>43942.0</v>
@@ -6011,27 +6011,27 @@
       <c r="D179" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="4"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="9"/>
       <c r="K179" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="L179" s="3"/>
-      <c r="M179" s="4"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="9"/>
       <c r="N179" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="O179" s="3"/>
-      <c r="P179" s="4"/>
+      <c r="O179" s="8"/>
+      <c r="P179" s="9"/>
       <c r="Q179" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="R179" s="3"/>
-      <c r="S179" s="4"/>
+      <c r="R179" s="8"/>
+      <c r="S179" s="9"/>
     </row>
     <row r="180">
       <c r="C180" s="28"/>
@@ -6232,7 +6232,7 @@
       <c r="B185" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="C185" s="4"/>
+      <c r="C185" s="9"/>
       <c r="D185" s="83" t="str">
         <f t="shared" ref="D185:G185" si="2">SUM(D184)</f>
         <v>#REF!</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="204">
       <c r="C204" s="89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">

--- a/WSI_MCP_TestData.xlsx
+++ b/WSI_MCP_TestData.xlsx
@@ -335,7 +335,7 @@
     <t>QA_AUT_UREF_DN</t>
   </si>
   <si>
-    <t>SYSTEM ADMINISTRATOR</t>
+    <t>system administrator</t>
   </si>
   <si>
     <t>Hyperlink</t>

--- a/WSI_MCP_TestData.xlsx
+++ b/WSI_MCP_TestData.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6840" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ManageAttributes" sheetId="1" r:id="rId1"/>
     <sheet name="ManageSeason" sheetId="2" r:id="rId2"/>
     <sheet name="Libraries" sheetId="4" r:id="rId3"/>
-    <sheet name="ManageTypes" sheetId="5" r:id="rId4"/>
-    <sheet name="FilterHeader" sheetId="6" r:id="rId5"/>
-    <sheet name="LDAPRoles" sheetId="7" r:id="rId6"/>
+    <sheet name="FilterHeader" sheetId="6" r:id="rId4"/>
+    <sheet name="LDAPRoles" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="335">
   <si>
     <t>DataType</t>
   </si>
@@ -444,19 +443,49 @@
     <t>SubMenu</t>
   </si>
   <si>
+    <t>Division</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
     <t>Vendor</t>
   </si>
   <si>
+    <t>Lading Port</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Season Collection</t>
+  </si>
+  <si>
+    <t>Diffs</t>
+  </si>
+  <si>
+    <t>Diff Material</t>
+  </si>
+  <si>
+    <t>JDA Hierarchy</t>
+  </si>
+  <si>
+    <t>Business Objects</t>
+  </si>
+  <si>
+    <t>Royalty</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
+    <t>Tabletop</t>
+  </si>
+  <si>
     <t>Item-Pack-Components</t>
   </si>
   <si>
-    <t>Agent</t>
+    <t>Textiles</t>
   </si>
   <si>
     <t>Item-Season</t>
@@ -465,21 +494,9 @@
     <t>Item-Parent-Season</t>
   </si>
   <si>
-    <t>Lading Port</t>
-  </si>
-  <si>
-    <t>JDA Hierarchy</t>
-  </si>
-  <si>
     <t>Merch Hierarchy</t>
   </si>
   <si>
-    <t>Diffs</t>
-  </si>
-  <si>
-    <t>Business Objects</t>
-  </si>
-  <si>
     <t>Item-Parent</t>
   </si>
   <si>
@@ -487,6 +504,15 @@
   </si>
   <si>
     <t>Merch List</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>WE Lighting Fall 2020</t>
   </si>
   <si>
     <t>AttributeName</t>
@@ -1006,9 +1032,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1054,16 +1080,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,10 +1112,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1105,14 +1140,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1139,9 +1166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,8 +1187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,9 +1202,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,21 +1226,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,6 +1258,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -1250,49 +1282,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,19 +1300,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,6 +1330,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1346,13 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,19 +1396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,18 +1426,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1462,6 +1488,94 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1473,6 +1587,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,24 +1626,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1539,162 +1658,118 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1706,8 +1781,32 @@
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1731,15 +1830,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
@@ -2208,7 +2315,7 @@
       <c r="V2" s="12">
         <v>60</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" s="25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2279,7 +2386,7 @@
       <c r="V3" s="12">
         <v>60</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AM3" s="25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2625,126 +2732,126 @@
       <c r="V8" s="12">
         <v>60</v>
       </c>
-      <c r="AM8" s="17" t="s">
+      <c r="AM8" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" ht="12.5" spans="1:39">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="16">
+      <c r="I9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="24">
         <v>50</v>
       </c>
-      <c r="O9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="X9" s="16" t="s">
+      <c r="O9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="X9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="Y9" s="16" t="s">
+      <c r="Y9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="Z9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK9" s="18" t="s">
+      <c r="Z9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="AL9" s="18" t="s">
+      <c r="AL9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="AM9" s="16"/>
+      <c r="AM9" s="24"/>
     </row>
     <row r="10" ht="12.5" spans="1:39">
       <c r="A10" s="12" t="s">
@@ -2789,31 +2896,31 @@
       <c r="N10" s="12">
         <v>50</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="28" t="s">
         <v>73</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="28" t="s">
         <v>73</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="S10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W10" s="28" t="s">
         <v>73</v>
       </c>
       <c r="X10" s="12" t="s">
@@ -2825,40 +2932,40 @@
       <c r="Z10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK10" s="17" t="s">
+      <c r="AA10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AL10" s="17" t="s">
+      <c r="AL10" s="25" t="s">
         <v>76</v>
       </c>
       <c r="AM10" s="12"/>
@@ -2912,64 +3019,64 @@
       <c r="P11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="23">
         <v>43891</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y11" s="20" t="s">
+      <c r="S11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y11" s="28" t="s">
         <v>73</v>
       </c>
       <c r="Z11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AA11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ11" s="20" t="s">
+      <c r="AA11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ11" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AK11" s="12"/>
@@ -3034,22 +3141,22 @@
       <c r="S12" s="12">
         <v>55</v>
       </c>
-      <c r="T12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y12" s="20" t="s">
+      <c r="T12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y12" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AA12" s="12">
@@ -3064,22 +3171,22 @@
       <c r="AD12" s="12">
         <v>2</v>
       </c>
-      <c r="AE12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ12" s="20" t="s">
+      <c r="AE12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ12" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AK12" s="12"/>
@@ -3144,25 +3251,25 @@
       <c r="S13" s="12">
         <v>55</v>
       </c>
-      <c r="T13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z13" s="20" t="s">
+      <c r="T13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AA13" s="12">
@@ -3177,22 +3284,22 @@
       <c r="AD13" s="12">
         <v>2</v>
       </c>
-      <c r="AE13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ13" s="20" t="s">
+      <c r="AE13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ13" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AK13" s="12"/>
@@ -3254,28 +3361,28 @@
       <c r="R14" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="V14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="X14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" s="21" t="s">
+      <c r="S14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="W14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="X14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" s="29" t="s">
         <v>73</v>
       </c>
       <c r="AA14">
@@ -3293,19 +3400,19 @@
       <c r="AE14" t="s">
         <v>95</v>
       </c>
-      <c r="AF14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ14" s="21" t="s">
+      <c r="AF14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ14" s="29" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3364,58 +3471,58 @@
       <c r="R15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ15" s="20" t="s">
+      <c r="S15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ15" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AK15" s="12"/>
@@ -3465,70 +3572,70 @@
       <c r="N16" s="12">
         <v>50</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="28" t="s">
         <v>73</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="28" t="s">
         <v>73</v>
       </c>
       <c r="R16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y16" s="20" t="s">
+      <c r="S16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y16" s="28" t="s">
         <v>73</v>
       </c>
       <c r="Z16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AA16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE16" s="20" t="s">
+      <c r="AA16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE16" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AF16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AG16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ16" s="20" t="s">
+      <c r="AG16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ16" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AK16" s="12"/>
@@ -3578,7 +3685,7 @@
       <c r="N17" s="12">
         <v>50</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="28" t="s">
         <v>73</v>
       </c>
       <c r="P17" s="12" t="s">
@@ -3590,58 +3697,58 @@
       <c r="R17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y17" s="20" t="s">
+      <c r="S17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y17" s="28" t="s">
         <v>73</v>
       </c>
       <c r="Z17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG17" s="17" t="s">
+      <c r="AA17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG17" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="AH17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ17" s="20" t="s">
+      <c r="AH17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ17" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AK17" s="12"/>
@@ -3691,7 +3798,7 @@
       <c r="N18" s="12">
         <v>50</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="28" t="s">
         <v>73</v>
       </c>
       <c r="P18" s="12" t="s">
@@ -3706,55 +3813,55 @@
       <c r="S18" s="12">
         <v>55</v>
       </c>
-      <c r="T18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y18" s="20" t="s">
+      <c r="T18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y18" s="28" t="s">
         <v>73</v>
       </c>
       <c r="Z18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AA18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ18" s="20" t="s">
+      <c r="AA18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ18" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AK18" s="12"/>
@@ -3807,7 +3914,7 @@
       <c r="P19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="28" t="s">
         <v>73</v>
       </c>
       <c r="R19" s="12" t="s">
@@ -3819,43 +3926,43 @@
       <c r="T19" s="12">
         <v>62</v>
       </c>
-      <c r="U19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="X19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y19" s="20" t="s">
+      <c r="U19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y19" s="28" t="s">
         <v>73</v>
       </c>
       <c r="Z19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AA19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF19" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG19" s="20" t="s">
+      <c r="AA19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG19" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AH19" s="12" t="s">
@@ -3962,16 +4069,16 @@
       <c r="D2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="23">
         <v>45292</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="23">
         <v>45293</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="23">
         <v>45292</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="23">
         <v>45293</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -3983,16 +4090,16 @@
       <c r="K2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="23">
         <v>45293</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="23">
         <v>45294</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="23">
         <v>45294</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="23">
         <v>45295</v>
       </c>
     </row>
@@ -4009,16 +4116,16 @@
       <c r="D3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="23">
         <v>45659</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="23">
         <v>45845</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="23">
         <v>45999</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="23">
         <v>46019</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -4030,16 +4137,16 @@
       <c r="K3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="23">
         <v>45691</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="23">
         <v>45846</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="23">
         <v>45999</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="23">
         <v>46019</v>
       </c>
     </row>
@@ -4054,110 +4161,226 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.7090909090909" customWidth="1"/>
+    <col min="4" max="4" width="20.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:1">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="13.75" spans="1:4">
+      <c r="A1" s="15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" ht="12.5" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" ht="12.5" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="D1" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="12.5" spans="1:4">
+      <c r="A2" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" ht="12.5" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" ht="12.5" spans="1:4">
+      <c r="A3" s="20" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" ht="12.5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" ht="12.5" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" ht="12.5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" ht="12.5" spans="1:4">
+      <c r="A6" s="20" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" ht="12.5" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" ht="12.5" spans="1:4">
+      <c r="A7" s="20" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" ht="12.5" spans="1:1">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="8" ht="12.5" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" ht="12.5" spans="1:4">
+      <c r="A9" s="20" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" ht="12.5" spans="1:1">
-      <c r="A9" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" ht="12.5" spans="1:1">
-      <c r="A10" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" ht="12.5" spans="1:1">
-      <c r="A11" s="12" t="s">
+      <c r="B9" s="21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="12" ht="12.5" spans="1:1">
-      <c r="A12" s="12" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" ht="12.5" spans="1:4">
+      <c r="A10" s="20" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="13" ht="12.5" spans="1:1">
-      <c r="A13" s="12" t="s">
+      <c r="B10" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" ht="12.5" spans="1:4">
+      <c r="A11" s="20" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" ht="12.5" spans="1:1">
-      <c r="A14" s="12" t="s">
+      <c r="B11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" ht="12.5" spans="1:4">
+      <c r="A14" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" ht="12.5" spans="1:4">
+      <c r="A15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" ht="12.5" spans="1:4">
+      <c r="A16" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" ht="12.5" spans="1:4">
+      <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" ht="12.5" spans="1:1">
-      <c r="A15" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" ht="12.5" spans="1:1">
-      <c r="A16" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" ht="12.5" spans="1:1">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" ht="12.5" spans="1:1">
-      <c r="A18" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" ht="12.5" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>155</v>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" ht="12.5" spans="1:4">
+      <c r="A18" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" ht="12.5" spans="1:4">
+      <c r="A19" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" ht="12.5" spans="1:4">
+      <c r="A20" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4167,123 +4390,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="20.7090909090909" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13" spans="1:1">
-      <c r="A1" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" ht="12.5" spans="1:1">
-      <c r="A2" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" ht="12.5" spans="1:1">
-      <c r="A3" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" ht="12.5" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" ht="12.5" spans="1:1">
-      <c r="A5" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" ht="12.5" spans="1:1">
-      <c r="A6" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" ht="12.5" spans="1:1">
-      <c r="A7" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" ht="12.5" spans="1:1">
-      <c r="A8" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" ht="12.5" spans="1:1">
-      <c r="A9" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" ht="12.5" spans="1:1">
-      <c r="A10" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" ht="12.5" spans="1:1">
-      <c r="A11" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" ht="12.5" spans="1:1">
-      <c r="A12" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" ht="12.5" spans="1:1">
-      <c r="A13" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" ht="12.5" spans="1:1">
-      <c r="A14" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" ht="12.5" spans="1:1">
-      <c r="A15" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" ht="12.5" spans="1:1">
-      <c r="A16" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" ht="12.5" spans="1:1">
-      <c r="A17" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" ht="12.5" spans="1:1">
-      <c r="A18" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" ht="12.5" spans="1:1">
-      <c r="A19" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D13"/>
@@ -4303,13 +4409,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4320,10 +4426,10 @@
         <v>117</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4334,10 +4440,10 @@
         <v>117</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4348,7 +4454,7 @@
         <v>118</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>132</v>
@@ -4362,7 +4468,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>131</v>
@@ -4373,10 +4479,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>130</v>
@@ -4387,13 +4493,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4401,12 +4507,12 @@
         <v>53</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4415,13 +4521,13 @@
         <v>81</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4429,13 +4535,13 @@
         <v>81</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4443,13 +4549,13 @@
         <v>81</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4457,13 +4563,13 @@
         <v>81</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4471,12 +4577,12 @@
         <v>81</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4486,12 +4592,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4506,25 +4612,25 @@
         <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" ht="50" spans="1:8">
@@ -4532,13 +4638,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E2" s="6" t="str">
         <f t="shared" ref="E2:E65" si="0">_xlfn.CONCAT(C2,D2)</f>
@@ -4553,7 +4659,7 @@
         <v>tstvcaweba@wsgc.com</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" ht="50" spans="1:8">
@@ -4561,13 +4667,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4582,7 +4688,7 @@
         <v>tstvcapbba@wsgc.com</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" ht="50" spans="1:8">
@@ -4590,13 +4696,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4611,7 +4717,7 @@
         <v>tstvcapkba@wsgc.com</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="50" spans="1:8">
@@ -4619,13 +4725,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4640,21 +4746,21 @@
         <v>tstvcaptba@wsgc.com</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" ht="37.5" spans="1:8">
       <c r="A6" s="4">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4669,7 +4775,7 @@
         <v>tstvcawedabm@wsgc.com</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="50" spans="1:8">
@@ -4677,13 +4783,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4698,21 +4804,21 @@
         <v>tstvcawefbm@wsgc.com</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" ht="37.5" spans="1:8">
       <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4727,21 +4833,21 @@
         <v>tstvcawelbm@wsgc.com</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" ht="37.5" spans="1:8">
       <c r="A9" s="4">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4756,21 +4862,21 @@
         <v>tstvcawetbm@wsgc.com</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" ht="37.5" spans="1:8">
       <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4785,7 +4891,7 @@
         <v>tstvcapbdabm@wsgc.com</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" ht="50" spans="1:8">
@@ -4793,13 +4899,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4814,21 +4920,21 @@
         <v>tstvcapbfbm@wsgc.com</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" ht="37.5" spans="1:8">
       <c r="A12" s="4">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4843,7 +4949,7 @@
         <v>tstvcapblbm@wsgc.com</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" ht="50" spans="1:8">
@@ -4851,13 +4957,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4872,21 +4978,21 @@
         <v>tstvcapbttbm@wsgc.com</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" ht="37.5" spans="1:8">
       <c r="A14" s="4">
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4901,21 +5007,21 @@
         <v>tstvcapbtbm@wsgc.com</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" ht="37.5" spans="1:8">
       <c r="A15" s="4">
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4930,7 +5036,7 @@
         <v>tstvcapkdabm@wsgc.com</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" ht="50" spans="1:8">
@@ -4938,13 +5044,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4959,21 +5065,21 @@
         <v>tstvcapkfbm@wsgc.com</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" ht="37.5" spans="1:8">
       <c r="A17" s="4">
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4988,21 +5094,21 @@
         <v>tstvcapklbm@wsgc.com</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" ht="37.5" spans="1:8">
       <c r="A18" s="4">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5017,21 +5123,21 @@
         <v>tstvcapktbm@wsgc.com</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" ht="37.5" spans="1:8">
       <c r="A19" s="4">
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5046,7 +5152,7 @@
         <v>tstvcaptdabm@wsgc.com</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" ht="50" spans="1:8">
@@ -5054,13 +5160,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5075,21 +5181,21 @@
         <v>tstvcaptfbm@wsgc.com</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" ht="37.5" spans="1:8">
       <c r="A21" s="4">
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5104,21 +5210,21 @@
         <v>tstvcaptlbm@wsgc.com</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" ht="37.5" spans="1:8">
       <c r="A22" s="4">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5133,21 +5239,21 @@
         <v>tstvcapttbm@wsgc.com</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" ht="25" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" ht="14.5" spans="1:8">
       <c r="A23" s="4">
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5162,21 +5268,21 @@
         <v>tstvcamerchops@wsgc.com</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" ht="37.5" spans="1:8">
       <c r="A24" s="4">
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5191,7 +5297,7 @@
         <v>tstvcawedaecm@wsgc.com</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" ht="50" spans="1:8">
@@ -5199,13 +5305,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5220,21 +5326,21 @@
         <v>tstvcawefecm@wsgc.com</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" ht="37.5" spans="1:8">
       <c r="A26" s="4">
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5249,21 +5355,21 @@
         <v>tstvcawelecm@wsgc.com</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" ht="37.5" spans="1:8">
       <c r="A27" s="4">
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5278,21 +5384,21 @@
         <v>tstvcawetecm@wsgc.com</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" ht="37.5" spans="1:8">
       <c r="A28" s="4">
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5307,7 +5413,7 @@
         <v>tstvcapbdaecm@wsgc.com</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" ht="50" spans="1:8">
@@ -5315,13 +5421,13 @@
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5336,21 +5442,21 @@
         <v>tstvcapbfecm@wsgc.com</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" ht="37.5" spans="1:8">
       <c r="A30" s="4">
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5365,7 +5471,7 @@
         <v>tstvcapblecm@wsgc.com</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" ht="50" spans="1:8">
@@ -5373,13 +5479,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5394,21 +5500,21 @@
         <v>tstvcapbttecm@wsgc.com</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" ht="37.5" spans="1:8">
       <c r="A32" s="4">
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5423,21 +5529,21 @@
         <v>tstvcapbtecm@wsgc.com</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" ht="37.5" spans="1:8">
       <c r="A33" s="4">
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5452,7 +5558,7 @@
         <v>tstvcapkdaecm@wsgc.com</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" ht="50" spans="1:8">
@@ -5460,13 +5566,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5481,21 +5587,21 @@
         <v>tstvcapkfecm@wsgc.com</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" ht="37.5" spans="1:8">
       <c r="A35" s="4">
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5510,21 +5616,21 @@
         <v>tstvcapklecm@wsgc.com</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" ht="37.5" spans="1:8">
       <c r="A36" s="4">
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E36" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5539,21 +5645,21 @@
         <v>tstvcapktecm@wsgc.com</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" ht="37.5" spans="1:8">
       <c r="A37" s="4">
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E37" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5568,7 +5674,7 @@
         <v>tstvcaptdaecm@wsgc.com</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" ht="50" spans="1:8">
@@ -5576,13 +5682,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E38" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5597,21 +5703,21 @@
         <v>tstvcaptfecm@wsgc.com</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" ht="37.5" spans="1:8">
       <c r="A39" s="4">
         <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E39" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5626,21 +5732,21 @@
         <v>tstvcaptlecm@wsgc.com</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" ht="37.5" spans="1:8">
       <c r="A40" s="4">
         <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5655,7 +5761,7 @@
         <v>tstvcapttecm@wsgc.com</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" ht="37.5" spans="1:8">
@@ -5663,13 +5769,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5684,21 +5790,21 @@
         <v>tstvcawelifem@wsgc.com</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" ht="37.5" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" ht="25" spans="1:8">
       <c r="A42" s="4">
         <v>42</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E42" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5713,21 +5819,21 @@
         <v>tstvcapblifem@wsgc.com</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" ht="37.5" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" ht="25" spans="1:8">
       <c r="A43" s="4">
         <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5742,21 +5848,21 @@
         <v>tstvcapklifem@wsgc.com</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" ht="37.5" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" ht="25" spans="1:8">
       <c r="A44" s="4">
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5771,21 +5877,21 @@
         <v>tstvcaptlifem@wsgc.com</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" ht="50" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" ht="37.5" spans="1:8">
       <c r="A45" s="4">
         <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E45" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5800,7 +5906,7 @@
         <v>tstvcawedsp@wsgc.com</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" ht="37.5" spans="1:8">
@@ -5808,13 +5914,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E46" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5829,7 +5935,7 @@
         <v>tstvcapbdsp@wsgc.com</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" ht="37.5" spans="1:8">
@@ -5837,13 +5943,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E47" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5858,7 +5964,7 @@
         <v>tstvcaptdsp@wsgc.com</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" ht="37.5" spans="1:8">
@@ -5866,13 +5972,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E48" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5887,7 +5993,7 @@
         <v>tstvcapkdsp@wsgc.com</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" ht="37.5" spans="1:8">
@@ -5895,13 +6001,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="E49" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5916,7 +6022,7 @@
         <v>tstvcawesm@wsgc.com</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" ht="37.5" spans="1:8">
@@ -5924,13 +6030,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E50" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5945,7 +6051,7 @@
         <v>tstvcapbsm@wsgc.com</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" ht="37.5" spans="1:8">
@@ -5953,13 +6059,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="E51" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5974,21 +6080,21 @@
         <v>tstvcapksm@wsgc.com</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" ht="37.5" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" ht="25" spans="1:8">
       <c r="A52" s="4">
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E52" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6003,7 +6109,7 @@
         <v>tstvcaptsm@wsgc.com</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" ht="37.5" spans="1:8">
@@ -6011,13 +6117,13 @@
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E53" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6032,7 +6138,7 @@
         <v>tstvcaweim@wsgc.com</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" ht="37.5" spans="1:8">
@@ -6040,13 +6146,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E54" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6061,7 +6167,7 @@
         <v>tstvcapbim@wsgc.com</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" ht="37.5" spans="1:8">
@@ -6069,13 +6175,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="E55" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6090,7 +6196,7 @@
         <v>tstvcapkim@wsgc.com</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" ht="37.5" spans="1:8">
@@ -6098,13 +6204,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E56" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6119,21 +6225,21 @@
         <v>tstvcaptim@wsgc.com</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" ht="37.5" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" ht="25" spans="1:8">
       <c r="A57" s="4">
         <v>57</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="E57" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6148,7 +6254,7 @@
         <v>tstvcawegbm@wsgc.com</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="25" spans="1:8">
@@ -6156,13 +6262,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E58" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6177,7 +6283,7 @@
         <v>tstvcapbgbm@wsgc.com</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" ht="25" spans="1:8">
@@ -6185,13 +6291,13 @@
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E59" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6206,7 +6312,7 @@
         <v>tstvcapkgbm@wsgc.com</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" ht="25" spans="1:8">
@@ -6214,13 +6320,13 @@
         <v>60</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E60" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6235,7 +6341,7 @@
         <v>tstvcaptgbm@wsgc.com</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" ht="37.5" spans="1:8">
@@ -6243,13 +6349,13 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E61" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6264,7 +6370,7 @@
         <v>tstvcawebanalyst@wsgc.com</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" ht="37.5" spans="1:8">
@@ -6272,13 +6378,13 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E62" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6293,7 +6399,7 @@
         <v>tstvcapbbanalyst@wsgc.com</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" ht="37.5" spans="1:8">
@@ -6301,13 +6407,13 @@
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E63" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6322,7 +6428,7 @@
         <v>tstvcapkbanalyst@wsgc.com</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" ht="37.5" spans="1:8">
@@ -6330,13 +6436,13 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E64" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6351,21 +6457,21 @@
         <v>tstvcaptbanalyst@wsgc.com</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" ht="25" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" ht="14.5" spans="1:8">
       <c r="A65" s="4">
         <v>65</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E65" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6380,7 +6486,7 @@
         <v>tstvcaweguest@wsgc.com</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" ht="14.5" spans="1:8">
@@ -6388,13 +6494,13 @@
         <v>66</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E66" s="6" t="str">
         <f t="shared" ref="E66:E68" si="3">_xlfn.CONCAT(C66,D66)</f>
@@ -6409,7 +6515,7 @@
         <v>tstvcapbguest@wsgc.com</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" ht="14.5" spans="1:8">
@@ -6417,13 +6523,13 @@
         <v>67</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E67" s="6" t="str">
         <f t="shared" si="3"/>
@@ -6438,7 +6544,7 @@
         <v>tstvcapkguest@wsgc.com</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" ht="14.5" spans="1:8">
@@ -6446,13 +6552,13 @@
         <v>68</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E68" s="6" t="str">
         <f t="shared" si="3"/>
@@ -6467,7 +6573,7 @@
         <v>tstvcaptguest@wsgc.com</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/WSI_MCP_TestData.xlsx
+++ b/WSI_MCP_TestData.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="ManageAttributes" sheetId="1" r:id="rId1"/>
     <sheet name="ManageSeason" sheetId="2" r:id="rId2"/>
-    <sheet name="Libraries" sheetId="4" r:id="rId3"/>
-    <sheet name="FilterHeader" sheetId="6" r:id="rId4"/>
-    <sheet name="LDAPRoles" sheetId="7" r:id="rId5"/>
+    <sheet name="Libraries-MerchList" sheetId="8" r:id="rId3"/>
+    <sheet name="Libraries" sheetId="4" r:id="rId4"/>
+    <sheet name="FilterHeader" sheetId="6" r:id="rId5"/>
+    <sheet name="LDAPRoles" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="335">
   <si>
     <t>DataType</t>
   </si>
@@ -446,6 +447,18 @@
     <t>Division</t>
   </si>
   <si>
+    <t>Merch List</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>WE Lighting Fall 2020</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -501,18 +514,6 @@
   </si>
   <si>
     <t>Item-Source-Season</t>
-  </si>
-  <si>
-    <t>Merch List</t>
-  </si>
-  <si>
-    <t>WE</t>
-  </si>
-  <si>
-    <t>Lighting</t>
-  </si>
-  <si>
-    <t>WE Lighting Fall 2020</t>
   </si>
   <si>
     <t>AttributeName</t>
@@ -1032,9 +1033,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1080,7 +1081,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -1096,11 +1103,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1112,26 +1119,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1140,36 +1132,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1187,6 +1149,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1195,8 +1164,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,21 +1196,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,25 +1277,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,13 +1397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,103 +1433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,12 +1452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,16 +1563,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1591,11 +1601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1604,22 +1620,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,174 +1636,174 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1838,7 +1839,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4161,10 +4162,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -4187,200 +4188,158 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="12.5" spans="1:4">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="3" ht="12.5" spans="1:4">
       <c r="A3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" ht="12.5" spans="1:4">
+      <c r="C3" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" ht="12.5" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" ht="12.5" spans="1:4">
       <c r="A6" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="7" ht="12.5" spans="1:4">
       <c r="A7" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+    </row>
+    <row r="8" ht="12.5" spans="1:4">
+      <c r="A8" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" ht="12.5" spans="1:4">
       <c r="A9" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+        <v>143</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" ht="12.5" spans="1:4">
       <c r="A10" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+        <v>143</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="11" ht="12.5" spans="1:4">
       <c r="A11" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="21" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" ht="12.5" spans="1:4">
+      <c r="A12" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" ht="12.5" spans="1:4">
-      <c r="A14" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" ht="12.5" spans="1:4">
-      <c r="A15" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" ht="12.5" spans="1:4">
-      <c r="A16" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" ht="12.5" spans="1:4">
-      <c r="A17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" ht="12.5" spans="1:4">
-      <c r="A18" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" ht="12.5" spans="1:4">
-      <c r="A19" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" ht="12.5" spans="1:4">
-      <c r="A20" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>164</v>
+        <v>144</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4390,6 +4349,239 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.7090909090909" customWidth="1"/>
+    <col min="4" max="4" width="20.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.75" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="12.5" spans="1:4">
+      <c r="A2" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" ht="12.5" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" ht="12.5" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" ht="12.5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" ht="12.5" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" ht="12.5" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" ht="12.5" spans="1:4">
+      <c r="A9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" ht="12.5" spans="1:4">
+      <c r="A10" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" ht="12.5" spans="1:4">
+      <c r="A11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" ht="12.5" spans="1:4">
+      <c r="A14" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" ht="12.5" spans="1:4">
+      <c r="A15" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" ht="12.5" spans="1:4">
+      <c r="A16" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" ht="12.5" spans="1:4">
+      <c r="A17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" ht="12.5" spans="1:4">
+      <c r="A18" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" ht="12.5" spans="1:4">
+      <c r="A19" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" ht="12.5" spans="1:4">
+      <c r="A20" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D13"/>
@@ -4592,7 +4784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H68"/>

--- a/WSI_MCP_TestData.xlsx
+++ b/WSI_MCP_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7110" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ManageAttributes" sheetId="1" r:id="rId1"/>
@@ -1031,11 +1031,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1089,53 +1089,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -1150,7 +1103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,31 +1117,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,6 +1147,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1225,8 +1179,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,19 +1277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,85 +1301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,12 +1337,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1433,25 +1349,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,6 +1562,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1587,6 +1598,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1597,6 +1632,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,195 +1659,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1839,7 +1839,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4164,7 +4164,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4188,7 +4188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="12.5" spans="1:4">
       <c r="A2" s="20" t="s">
         <v>142</v>
       </c>
@@ -4586,12 +4586,13 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="12.5" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="13.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="24.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
   </cols>
@@ -4677,7 +4678,7 @@
         <v>175</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4">

--- a/WSI_MCP_TestData.xlsx
+++ b/WSI_MCP_TestData.xlsx
@@ -558,7 +558,7 @@
     <t>Is Empty</t>
   </si>
   <si>
-    <t>Internet Launch Start Date</t>
+    <t>Internet_Launch_Start_Date</t>
   </si>
   <si>
     <t>Is Equal</t>
@@ -567,7 +567,7 @@
     <t>01/01/2024</t>
   </si>
   <si>
-    <t>Internet Launch End Date</t>
+    <t>Internet_Launch_End_Date</t>
   </si>
   <si>
     <t>Is After</t>
@@ -576,7 +576,7 @@
     <t>01/01/2023</t>
   </si>
   <si>
-    <t>In Store Launch Start Date</t>
+    <t>In_Store_Launch_Start_Date</t>
   </si>
   <si>
     <t>Is Before</t>
@@ -585,7 +585,7 @@
     <t>01/01/2025</t>
   </si>
   <si>
-    <t>In Store Launch End Date</t>
+    <t>In_Store_Launch_End_Date</t>
   </si>
   <si>
     <t>Range</t>
@@ -1031,11 +1031,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1081,10 +1081,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1103,7 +1119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,6 +1148,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -1140,7 +1210,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1155,78 +1225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,7 +1277,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,25 +1379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,7 +1421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,102 +1452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,17 +1562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1584,6 +1573,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1616,6 +1616,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1635,175 +1659,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1839,7 +1839,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4587,7 +4587,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="12.5" outlineLevelCol="3"/>

--- a/WSI_MCP_TestData.xlsx
+++ b/WSI_MCP_TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bv\git\KatalonStudio_WebProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48069424-5D60-4EF3-8E88-2DD2C00A9D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManageAttributes" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,25 @@
     <sheet name="Libraries-MerchList" sheetId="8" r:id="rId3"/>
     <sheet name="Libraries" sheetId="4" r:id="rId4"/>
     <sheet name="FilterHeader" sheetId="6" r:id="rId5"/>
-    <sheet name="LDAPRoles" sheetId="7" r:id="rId6"/>
+    <sheet name="ViewNames" sheetId="9" r:id="rId6"/>
+    <sheet name="LDAPRoles" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="346">
   <si>
     <t>DataType</t>
   </si>
@@ -1024,20 +1041,49 @@
   </si>
   <si>
     <t>PTGUEST</t>
+  </si>
+  <si>
+    <t>viewName</t>
+  </si>
+  <si>
+    <t>Furniture&gt;806 - WE CASUAL SEATING</t>
+  </si>
+  <si>
+    <t>WE Furniture Fall 2020</t>
+  </si>
+  <si>
+    <t>FE - Image Perf Test View - Collection Image</t>
+  </si>
+  <si>
+    <t>FE - Image Perf Test View - All Image</t>
+  </si>
+  <si>
+    <t>FE - Image Perf Test View - Product group Image</t>
+  </si>
+  <si>
+    <t>FE - Image Perf Test View - SKU Image</t>
+  </si>
+  <si>
+    <t>FE - Image Perf Test View - No Image</t>
+  </si>
+  <si>
+    <t>FE - Image Perf Test View - Product Image</t>
+  </si>
+  <si>
+    <t>FE - Image Perf Test View - Swatch Image</t>
+  </si>
+  <si>
+    <t>Lighting&gt;805 - WE LIGHTING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1080,159 +1126,8 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,188 +1170,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1561,253 +1276,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1839,7 +1312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1847,66 +1320,22 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2104,33 +1533,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="17.4272727272727" customWidth="1"/>
-    <col min="3" max="3" width="19.4272727272727" customWidth="1"/>
-    <col min="4" max="4" width="20.2909090909091" customWidth="1"/>
-    <col min="9" max="9" width="15.8636363636364" customWidth="1"/>
-    <col min="10" max="10" width="16.2909090909091" customWidth="1"/>
-    <col min="11" max="11" width="15.5727272727273" customWidth="1"/>
-    <col min="14" max="14" width="17.7090909090909" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:39">
+    <row r="1" spans="1:39" ht="12.75">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +1677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" ht="12.5" spans="1:39">
+    <row r="2" spans="1:39" ht="12.75">
       <c r="A2" s="12" t="s">
         <v>39</v>
       </c>
@@ -2320,7 +1748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" ht="12.5" spans="1:39">
+    <row r="3" spans="1:39" ht="12.75">
       <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
@@ -2391,7 +1819,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" ht="12.5" spans="1:22">
+    <row r="4" spans="1:39" ht="12.75">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
@@ -2459,7 +1887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" ht="12.5" spans="1:23">
+    <row r="5" spans="1:39" ht="12.75">
       <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
@@ -2530,7 +1958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" ht="12.5" spans="1:22">
+    <row r="6" spans="1:39" ht="12.75">
       <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
@@ -2598,7 +2026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="12.5" spans="1:22">
+    <row r="7" spans="1:39" ht="12.75">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -2666,7 +2094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" ht="12.5" spans="1:39">
+    <row r="8" spans="1:39" ht="12.75">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
@@ -2737,7 +2165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" ht="12.5" spans="1:39">
+    <row r="9" spans="1:39" ht="12.75">
       <c r="A9" s="24" t="s">
         <v>69</v>
       </c>
@@ -2854,7 +2282,7 @@
       </c>
       <c r="AM9" s="24"/>
     </row>
-    <row r="10" ht="12.5" spans="1:39">
+    <row r="10" spans="1:39" ht="12.75">
       <c r="A10" s="12" t="s">
         <v>77</v>
       </c>
@@ -2971,7 +2399,7 @@
       </c>
       <c r="AM10" s="12"/>
     </row>
-    <row r="11" ht="12.5" spans="1:39">
+    <row r="11" spans="1:39" ht="12.75">
       <c r="A11" s="12" t="s">
         <v>80</v>
       </c>
@@ -3084,7 +2512,7 @@
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
     </row>
-    <row r="12" ht="12.5" spans="1:39">
+    <row r="12" spans="1:39" ht="12.75">
       <c r="A12" s="12" t="s">
         <v>84</v>
       </c>
@@ -3194,7 +2622,7 @@
       <c r="AL12" s="12"/>
       <c r="AM12" s="12"/>
     </row>
-    <row r="13" ht="12.5" spans="1:39">
+    <row r="13" spans="1:39" ht="12.75">
       <c r="A13" s="12" t="s">
         <v>88</v>
       </c>
@@ -3307,7 +2735,7 @@
       <c r="AL13" s="12"/>
       <c r="AM13" s="12"/>
     </row>
-    <row r="14" ht="12.5" spans="1:36">
+    <row r="14" spans="1:39" ht="12.75">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -3417,7 +2845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" ht="12.5" spans="1:39">
+    <row r="15" spans="1:39" ht="12.75">
       <c r="A15" s="12" t="s">
         <v>96</v>
       </c>
@@ -3530,7 +2958,7 @@
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
     </row>
-    <row r="16" ht="12.5" spans="1:39">
+    <row r="16" spans="1:39" ht="12.75">
       <c r="A16" s="12" t="s">
         <v>99</v>
       </c>
@@ -3643,7 +3071,7 @@
       <c r="AL16" s="12"/>
       <c r="AM16" s="12"/>
     </row>
-    <row r="17" ht="12.5" spans="1:39">
+    <row r="17" spans="1:39" ht="12.75">
       <c r="A17" s="12" t="s">
         <v>104</v>
       </c>
@@ -3756,7 +3184,7 @@
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
     </row>
-    <row r="18" ht="12.5" spans="1:39">
+    <row r="18" spans="1:39" ht="12.75">
       <c r="A18" s="12" t="s">
         <v>108</v>
       </c>
@@ -3869,7 +3297,7 @@
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
     </row>
-    <row r="19" ht="12.5" spans="1:39">
+    <row r="19" spans="1:39" ht="12.75">
       <c r="A19" s="12" t="s">
         <v>112</v>
       </c>
@@ -3981,12 +3409,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3996,21 +3423,21 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="18.2909090909091" customWidth="1"/>
-    <col min="6" max="6" width="17.5727272727273" customWidth="1"/>
-    <col min="7" max="8" width="15.4272727272727" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="37.2909090909091" customWidth="1"/>
-    <col min="12" max="12" width="24.4272727272727" customWidth="1"/>
-    <col min="13" max="13" width="23.7090909090909" customWidth="1"/>
-    <col min="14" max="14" width="22.5727272727273" customWidth="1"/>
-    <col min="15" max="15" width="22.8636363636364" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:15">
+    <row r="1" spans="1:15" ht="12.75">
       <c r="A1" s="9" t="s">
         <v>116</v>
       </c>
@@ -4057,7 +3484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" ht="12.5" spans="1:15">
+    <row r="2" spans="1:15" ht="12.75">
       <c r="A2" s="12" t="s">
         <v>130</v>
       </c>
@@ -4104,7 +3531,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="3" ht="12.5" spans="1:15">
+    <row r="3" spans="1:15" ht="12.75">
       <c r="A3" s="12" t="s">
         <v>136</v>
       </c>
@@ -4153,12 +3580,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4168,13 +3594,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.7090909090909" customWidth="1"/>
-    <col min="4" max="4" width="20.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.75" spans="1:4">
+    <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="15" t="s">
         <v>140</v>
       </c>
@@ -4188,7 +3614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="12.5" spans="1:4">
+    <row r="2" spans="1:4" ht="12.75">
       <c r="A2" s="20" t="s">
         <v>142</v>
       </c>
@@ -4202,7 +3628,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" ht="12.5" spans="1:4">
+    <row r="3" spans="1:4" ht="12.75">
       <c r="A3" s="20" t="s">
         <v>142</v>
       </c>
@@ -4216,7 +3642,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>142</v>
       </c>
@@ -4230,7 +3656,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>142</v>
       </c>
@@ -4244,7 +3670,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" ht="12.5" spans="1:4">
+    <row r="6" spans="1:4" ht="12.75">
       <c r="A6" s="20" t="s">
         <v>142</v>
       </c>
@@ -4258,7 +3684,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" ht="12.5" spans="1:4">
+    <row r="7" spans="1:4" ht="12.75">
       <c r="A7" s="20" t="s">
         <v>142</v>
       </c>
@@ -4272,7 +3698,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" ht="12.5" spans="1:4">
+    <row r="8" spans="1:4" ht="12.75">
       <c r="A8" s="20" t="s">
         <v>142</v>
       </c>
@@ -4286,7 +3712,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" ht="12.5" spans="1:4">
+    <row r="9" spans="1:4" ht="12.75">
       <c r="A9" s="20" t="s">
         <v>142</v>
       </c>
@@ -4300,7 +3726,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" ht="12.5" spans="1:4">
+    <row r="10" spans="1:4" ht="12.75">
       <c r="A10" s="20" t="s">
         <v>142</v>
       </c>
@@ -4314,7 +3740,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" ht="12.5" spans="1:4">
+    <row r="11" spans="1:4" ht="12.75">
       <c r="A11" s="20" t="s">
         <v>142</v>
       </c>
@@ -4328,7 +3754,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" ht="12.5" spans="1:4">
+    <row r="12" spans="1:4" ht="12.75">
       <c r="A12" s="20" t="s">
         <v>142</v>
       </c>
@@ -4344,12 +3770,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4359,13 +3784,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.7090909090909" customWidth="1"/>
-    <col min="4" max="4" width="20.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.75" spans="1:4">
+    <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="15" t="s">
         <v>140</v>
       </c>
@@ -4379,7 +3804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="12.5" spans="1:4">
+    <row r="2" spans="1:4" ht="12.75">
       <c r="A2" s="18" t="s">
         <v>146</v>
       </c>
@@ -4387,7 +3812,7 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
     </row>
-    <row r="3" ht="12.5" spans="1:4">
+    <row r="3" spans="1:4" ht="12.75">
       <c r="A3" s="20" t="s">
         <v>147</v>
       </c>
@@ -4395,7 +3820,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" ht="12.5" spans="1:4">
+    <row r="4" spans="1:4" ht="12.75">
       <c r="A4" s="20" t="s">
         <v>112</v>
       </c>
@@ -4403,7 +3828,7 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" ht="12.5" spans="1:4">
+    <row r="5" spans="1:4" ht="12.75">
       <c r="A5" s="20" t="s">
         <v>76</v>
       </c>
@@ -4411,7 +3836,7 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" ht="12.5" spans="1:4">
+    <row r="6" spans="1:4" ht="12.75">
       <c r="A6" s="20" t="s">
         <v>148</v>
       </c>
@@ -4419,7 +3844,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" ht="12.5" spans="1:4">
+    <row r="7" spans="1:4" ht="12.75">
       <c r="A7" s="20" t="s">
         <v>149</v>
       </c>
@@ -4427,7 +3852,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>150</v>
       </c>
@@ -4435,7 +3860,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" ht="12.5" spans="1:4">
+    <row r="9" spans="1:4" ht="12.75">
       <c r="A9" s="20" t="s">
         <v>151</v>
       </c>
@@ -4445,7 +3870,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" ht="12.5" spans="1:4">
+    <row r="10" spans="1:4" ht="12.75">
       <c r="A10" s="20" t="s">
         <v>153</v>
       </c>
@@ -4455,7 +3880,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
     </row>
-    <row r="11" ht="12.5" spans="1:4">
+    <row r="11" spans="1:4" ht="12.75">
       <c r="A11" s="20" t="s">
         <v>154</v>
       </c>
@@ -4465,7 +3890,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>156</v>
       </c>
@@ -4477,7 +3902,7 @@
       </c>
       <c r="D12" s="21"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>158</v>
       </c>
@@ -4489,7 +3914,7 @@
       </c>
       <c r="D13" s="21"/>
     </row>
-    <row r="14" ht="12.5" spans="1:4">
+    <row r="14" spans="1:4" ht="12.75">
       <c r="A14" s="20" t="s">
         <v>160</v>
       </c>
@@ -4501,7 +3926,7 @@
       </c>
       <c r="D14" s="21"/>
     </row>
-    <row r="15" ht="12.5" spans="1:4">
+    <row r="15" spans="1:4" ht="12.75">
       <c r="A15" s="22" t="s">
         <v>161</v>
       </c>
@@ -4513,7 +3938,7 @@
       </c>
       <c r="D15" s="21"/>
     </row>
-    <row r="16" ht="12.5" spans="1:4">
+    <row r="16" spans="1:4" ht="12.75">
       <c r="A16" s="20" t="s">
         <v>162</v>
       </c>
@@ -4525,7 +3950,7 @@
       </c>
       <c r="D16" s="21"/>
     </row>
-    <row r="17" ht="12.5" spans="1:4">
+    <row r="17" spans="1:4" ht="12.75">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
@@ -4537,7 +3962,7 @@
       </c>
       <c r="D17" s="21"/>
     </row>
-    <row r="18" ht="12.5" spans="1:4">
+    <row r="18" spans="1:4" ht="12.75">
       <c r="A18" s="20" t="s">
         <v>163</v>
       </c>
@@ -4549,7 +3974,7 @@
       </c>
       <c r="D18" s="21"/>
     </row>
-    <row r="19" ht="12.5" spans="1:4">
+    <row r="19" spans="1:4" ht="12.75">
       <c r="A19" s="20" t="s">
         <v>164</v>
       </c>
@@ -4561,7 +3986,7 @@
       </c>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" ht="12.5" spans="1:4">
+    <row r="20" spans="1:4" ht="12.75">
       <c r="A20" s="20" t="s">
         <v>142</v>
       </c>
@@ -4577,27 +4002,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="12.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="24.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4781,26 +4204,255 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939ABEB4-C952-4C4B-9A04-86FA8A08B3BF}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="12.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="10.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -4826,7 +4478,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" ht="50" spans="1:8">
+    <row r="2" spans="1:8" ht="51.75">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -4855,7 +4507,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" ht="50" spans="1:8">
+    <row r="3" spans="1:8" ht="51.75">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -4884,7 +4536,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" ht="50" spans="1:8">
+    <row r="4" spans="1:8" ht="51.75">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -4913,7 +4565,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" ht="50" spans="1:8">
+    <row r="5" spans="1:8" ht="51.75">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -4942,7 +4594,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" ht="37.5" spans="1:8">
+    <row r="6" spans="1:8" ht="39">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -4971,7 +4623,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" ht="50" spans="1:8">
+    <row r="7" spans="1:8" ht="51.75">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -5000,7 +4652,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" ht="37.5" spans="1:8">
+    <row r="8" spans="1:8" ht="51.75">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -5029,7 +4681,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" ht="37.5" spans="1:8">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -5058,7 +4710,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" ht="37.5" spans="1:8">
+    <row r="10" spans="1:8" ht="39">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -5087,7 +4739,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" ht="50" spans="1:8">
+    <row r="11" spans="1:8" ht="51.75">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -5116,7 +4768,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" ht="37.5" spans="1:8">
+    <row r="12" spans="1:8" ht="51.75">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -5145,7 +4797,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" ht="50" spans="1:8">
+    <row r="13" spans="1:8" ht="51.75">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -5174,7 +4826,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" ht="37.5" spans="1:8">
+    <row r="14" spans="1:8" ht="51.75">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -5203,7 +4855,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" ht="37.5" spans="1:8">
+    <row r="15" spans="1:8" ht="39">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -5232,7 +4884,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" ht="50" spans="1:8">
+    <row r="16" spans="1:8" ht="51.75">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -5261,7 +4913,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" ht="37.5" spans="1:8">
+    <row r="17" spans="1:8" ht="51.75">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -5290,7 +4942,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" ht="37.5" spans="1:8">
+    <row r="18" spans="1:8" ht="51.75">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -5319,7 +4971,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" ht="37.5" spans="1:8">
+    <row r="19" spans="1:8" ht="39">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -5348,7 +5000,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" ht="50" spans="1:8">
+    <row r="20" spans="1:8" ht="51.75">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -5377,7 +5029,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" ht="37.5" spans="1:8">
+    <row r="21" spans="1:8" ht="39">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -5406,7 +5058,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" ht="37.5" spans="1:8">
+    <row r="22" spans="1:8" ht="39">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -5435,7 +5087,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" ht="14.5" spans="1:8">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -5464,7 +5116,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" ht="37.5" spans="1:8">
+    <row r="24" spans="1:8" ht="39">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -5493,7 +5145,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" ht="50" spans="1:8">
+    <row r="25" spans="1:8" ht="51.75">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -5522,7 +5174,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" ht="37.5" spans="1:8">
+    <row r="26" spans="1:8" ht="51.75">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -5551,7 +5203,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" ht="37.5" spans="1:8">
+    <row r="27" spans="1:8" ht="51.75">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -5580,7 +5232,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" ht="37.5" spans="1:8">
+    <row r="28" spans="1:8" ht="39">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -5609,7 +5261,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" ht="50" spans="1:8">
+    <row r="29" spans="1:8" ht="51.75">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -5638,7 +5290,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" ht="37.5" spans="1:8">
+    <row r="30" spans="1:8" ht="51.75">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -5667,7 +5319,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" ht="50" spans="1:8">
+    <row r="31" spans="1:8" ht="51.75">
       <c r="A31" s="4">
         <v>31</v>
       </c>
@@ -5696,7 +5348,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" ht="37.5" spans="1:8">
+    <row r="32" spans="1:8" ht="51.75">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -5725,7 +5377,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" ht="37.5" spans="1:8">
+    <row r="33" spans="1:8" ht="39">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -5754,7 +5406,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" ht="50" spans="1:8">
+    <row r="34" spans="1:8" ht="51.75">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -5783,7 +5435,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" ht="37.5" spans="1:8">
+    <row r="35" spans="1:8" ht="51.75">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -5812,7 +5464,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" ht="37.5" spans="1:8">
+    <row r="36" spans="1:8" ht="51.75">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -5841,7 +5493,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" ht="37.5" spans="1:8">
+    <row r="37" spans="1:8" ht="39">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -5870,7 +5522,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" ht="50" spans="1:8">
+    <row r="38" spans="1:8" ht="51.75">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -5899,7 +5551,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" ht="37.5" spans="1:8">
+    <row r="39" spans="1:8" ht="39">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -5928,7 +5580,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" ht="37.5" spans="1:8">
+    <row r="40" spans="1:8" ht="39">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -5957,7 +5609,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" ht="37.5" spans="1:8">
+    <row r="41" spans="1:8" ht="39">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -5986,7 +5638,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" ht="25" spans="1:8">
+    <row r="42" spans="1:8" ht="39">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -6015,7 +5667,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" ht="25" spans="1:8">
+    <row r="43" spans="1:8" ht="39">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -6044,7 +5696,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" ht="25" spans="1:8">
+    <row r="44" spans="1:8" ht="39">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -6073,7 +5725,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="45" ht="37.5" spans="1:8">
+    <row r="45" spans="1:8" ht="39">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -6102,7 +5754,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" ht="37.5" spans="1:8">
+    <row r="46" spans="1:8" ht="39">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -6131,7 +5783,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" ht="37.5" spans="1:8">
+    <row r="47" spans="1:8" ht="39">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -6160,7 +5812,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" ht="37.5" spans="1:8">
+    <row r="48" spans="1:8" ht="39">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -6189,7 +5841,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" ht="37.5" spans="1:8">
+    <row r="49" spans="1:8" ht="39">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -6218,7 +5870,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" ht="37.5" spans="1:8">
+    <row r="50" spans="1:8" ht="39">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -6247,7 +5899,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" ht="37.5" spans="1:8">
+    <row r="51" spans="1:8" ht="39">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -6276,7 +5928,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" ht="25" spans="1:8">
+    <row r="52" spans="1:8" ht="39">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -6305,7 +5957,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" ht="37.5" spans="1:8">
+    <row r="53" spans="1:8" ht="39">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -6334,7 +5986,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" ht="37.5" spans="1:8">
+    <row r="54" spans="1:8" ht="39">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -6363,7 +6015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" ht="37.5" spans="1:8">
+    <row r="55" spans="1:8" ht="39">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -6392,7 +6044,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" ht="37.5" spans="1:8">
+    <row r="56" spans="1:8" ht="39">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -6421,7 +6073,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" ht="25" spans="1:8">
+    <row r="57" spans="1:8" ht="26.25">
       <c r="A57" s="4">
         <v>57</v>
       </c>
@@ -6450,7 +6102,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" ht="25" spans="1:8">
+    <row r="58" spans="1:8" ht="26.25">
       <c r="A58" s="4">
         <v>58</v>
       </c>
@@ -6479,7 +6131,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" ht="25" spans="1:8">
+    <row r="59" spans="1:8" ht="26.25">
       <c r="A59" s="4">
         <v>59</v>
       </c>
@@ -6508,7 +6160,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" ht="25" spans="1:8">
+    <row r="60" spans="1:8" ht="26.25">
       <c r="A60" s="4">
         <v>60</v>
       </c>
@@ -6537,7 +6189,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" ht="37.5" spans="1:8">
+    <row r="61" spans="1:8" ht="39">
       <c r="A61" s="4">
         <v>61</v>
       </c>
@@ -6566,7 +6218,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" ht="37.5" spans="1:8">
+    <row r="62" spans="1:8" ht="39">
       <c r="A62" s="4">
         <v>62</v>
       </c>
@@ -6595,7 +6247,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" ht="37.5" spans="1:8">
+    <row r="63" spans="1:8" ht="39">
       <c r="A63" s="4">
         <v>63</v>
       </c>
@@ -6624,7 +6276,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" ht="37.5" spans="1:8">
+    <row r="64" spans="1:8" ht="39">
       <c r="A64" s="4">
         <v>64</v>
       </c>
@@ -6653,7 +6305,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" ht="14.5" spans="1:8">
+    <row r="65" spans="1:8" ht="15">
       <c r="A65" s="4">
         <v>65</v>
       </c>
@@ -6682,7 +6334,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" ht="14.5" spans="1:8">
+    <row r="66" spans="1:8" ht="15">
       <c r="A66" s="4">
         <v>66</v>
       </c>
@@ -6711,7 +6363,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" ht="14.5" spans="1:8">
+    <row r="67" spans="1:8" ht="15">
       <c r="A67" s="4">
         <v>67</v>
       </c>
@@ -6740,7 +6392,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" ht="14.5" spans="1:8">
+    <row r="68" spans="1:8" ht="15">
       <c r="A68" s="4">
         <v>68</v>
       </c>
@@ -6771,6 +6423,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>